--- a/Oil price information/2557.xlsx
+++ b/Oil price information/2557.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptydvp/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\OVERFLOW-PSIT\Oil price information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBFBD14-649F-634B-A5CC-B3C376E48BEC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93228D0A-161E-4F90-A89D-56DAFED82BB0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19460" xr2:uid="{1C378A14-04A6-8342-905E-8F932BB21EA5}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="33600" windowHeight="19464" xr2:uid="{1C378A14-04A6-8342-905E-8F932BB21EA5}"/>
   </bookViews>
   <sheets>
     <sheet name="2557" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -120,7 +120,7 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -132,7 +132,7 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -435,24 +435,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -532,6 +514,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -859,32 +859,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624B7881-4D5C-0745-8D44-E6A170A96F56}">
   <dimension ref="A1:N366"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5" style="15" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" style="15" customWidth="1"/>
-    <col min="4" max="5" width="13.6640625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" style="15" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="15"/>
-    <col min="8" max="8" width="12.33203125" style="15" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="15"/>
-    <col min="11" max="11" width="13.1640625" style="15" customWidth="1"/>
-    <col min="12" max="12" width="12.1640625" style="15" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" style="15" customWidth="1"/>
-    <col min="14" max="14" width="13.1640625" style="15" customWidth="1"/>
-    <col min="15" max="15" width="12.83203125" style="15" customWidth="1"/>
-    <col min="16" max="16" width="15.1640625" style="15" customWidth="1"/>
-    <col min="17" max="17" width="15.6640625" style="15" customWidth="1"/>
-    <col min="18" max="16384" width="10.83203125" style="15"/>
+    <col min="1" max="1" width="21.453125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" style="15" customWidth="1"/>
+    <col min="4" max="5" width="13.6328125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" style="15"/>
+    <col min="8" max="8" width="12.36328125" style="15" customWidth="1"/>
+    <col min="9" max="9" width="11.6328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.81640625" style="15"/>
+    <col min="11" max="11" width="13.1796875" style="15" customWidth="1"/>
+    <col min="12" max="12" width="12.1796875" style="15" customWidth="1"/>
+    <col min="13" max="13" width="15.36328125" style="15" customWidth="1"/>
+    <col min="14" max="14" width="13.1796875" style="15" customWidth="1"/>
+    <col min="15" max="15" width="12.81640625" style="15" customWidth="1"/>
+    <col min="16" max="16" width="15.1796875" style="15" customWidth="1"/>
+    <col min="17" max="17" width="15.6328125" style="15" customWidth="1"/>
+    <col min="18" max="16384" width="10.81640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17" thickBot="1">
+    <row r="1" spans="1:13" ht="15.6" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -904,8 +904,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="19" customHeight="1">
-      <c r="A2" s="40">
+    <row r="2" spans="1:13" ht="19.05" customHeight="1">
+      <c r="A2" s="34">
         <v>239967</v>
       </c>
       <c r="B2" s="4">
@@ -924,17 +924,17 @@
         <v>29.99</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="18"/>
-    </row>
-    <row r="3" spans="1:13" ht="20" customHeight="1" thickBot="1">
-      <c r="A3" s="41">
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="45"/>
+    </row>
+    <row r="3" spans="1:13" ht="19.95" customHeight="1" thickBot="1">
+      <c r="A3" s="35">
         <v>239968</v>
       </c>
       <c r="B3" s="3">
@@ -953,15 +953,15 @@
         <v>29.99</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="21"/>
-    </row>
-    <row r="4" spans="1:13" ht="20" thickBot="1">
-      <c r="A4" s="41">
+      <c r="H3" s="46"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="48"/>
+    </row>
+    <row r="4" spans="1:13" ht="18" thickBot="1">
+      <c r="A4" s="35">
         <v>239969</v>
       </c>
       <c r="B4" s="3">
@@ -982,8 +982,8 @@
       <c r="G4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:13" ht="19" customHeight="1">
-      <c r="A5" s="41">
+    <row r="5" spans="1:13" ht="19.05" customHeight="1">
+      <c r="A5" s="35">
         <v>239970</v>
       </c>
       <c r="B5" s="3">
@@ -1002,17 +1002,17 @@
         <v>29.99</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="43" t="s">
+      <c r="H5" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="45"/>
-    </row>
-    <row r="6" spans="1:13" ht="19" customHeight="1" thickBot="1">
-      <c r="A6" s="41">
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="39"/>
+    </row>
+    <row r="6" spans="1:13" ht="19.05" customHeight="1" thickBot="1">
+      <c r="A6" s="35">
         <v>239971</v>
       </c>
       <c r="B6" s="3">
@@ -1031,15 +1031,15 @@
         <v>29.99</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="48"/>
-    </row>
-    <row r="7" spans="1:13" ht="20" thickBot="1">
-      <c r="A7" s="41">
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="42"/>
+    </row>
+    <row r="7" spans="1:13" ht="18" thickBot="1">
+      <c r="A7" s="35">
         <v>239972</v>
       </c>
       <c r="B7" s="3">
@@ -1061,8 +1061,8 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:13" ht="20" thickBot="1">
-      <c r="A8" s="41">
+    <row r="8" spans="1:13" ht="18" thickBot="1">
+      <c r="A8" s="35">
         <v>239973</v>
       </c>
       <c r="B8" s="3">
@@ -1081,27 +1081,27 @@
         <v>29.99</v>
       </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="23" t="s">
+      <c r="I8" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="J8" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="K8" s="25" t="s">
+      <c r="K8" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="26" t="s">
+      <c r="L8" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="27" t="s">
+      <c r="M8" s="21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="19">
-      <c r="A9" s="41">
+    <row r="9" spans="1:13" ht="17.399999999999999">
+      <c r="A9" s="35">
         <v>239974</v>
       </c>
       <c r="B9" s="3">
@@ -1120,32 +1120,32 @@
         <v>29.99</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="28" t="s">
+      <c r="H9" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="31">
+      <c r="I9" s="25">
         <f>AVERAGE(B2:B32)</f>
         <v>38.24774193548388</v>
       </c>
-      <c r="J9" s="31">
+      <c r="J9" s="25">
         <f t="shared" ref="J9:M9" si="0">AVERAGE(C2:C32)</f>
         <v>40.697741935483855</v>
       </c>
-      <c r="K9" s="31">
+      <c r="K9" s="25">
         <f t="shared" si="0"/>
         <v>35.747741935483887</v>
       </c>
-      <c r="L9" s="31">
+      <c r="L9" s="25">
         <f t="shared" si="0"/>
         <v>24.454193548387092</v>
       </c>
-      <c r="M9" s="32">
+      <c r="M9" s="26">
         <f t="shared" si="0"/>
         <v>29.990000000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="19">
-      <c r="A10" s="41">
+    <row r="10" spans="1:13" ht="17.399999999999999">
+      <c r="A10" s="35">
         <v>239975</v>
       </c>
       <c r="B10" s="3">
@@ -1164,32 +1164,32 @@
         <v>29.99</v>
       </c>
       <c r="G10" s="2"/>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="31">
+      <c r="I10" s="25">
         <f>AVERAGE(B33:B60)</f>
         <v>38.080000000000005</v>
       </c>
-      <c r="J10" s="31">
+      <c r="J10" s="25">
         <f t="shared" ref="J10:M10" si="1">AVERAGE(C33:C60)</f>
         <v>40.52999999999998</v>
       </c>
-      <c r="K10" s="31">
+      <c r="K10" s="25">
         <f t="shared" si="1"/>
         <v>35.580000000000013</v>
       </c>
-      <c r="L10" s="31">
+      <c r="L10" s="25">
         <f t="shared" si="1"/>
         <v>24.38</v>
       </c>
-      <c r="M10" s="32">
+      <c r="M10" s="26">
         <f t="shared" si="1"/>
         <v>29.990000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="19">
-      <c r="A11" s="41">
+    <row r="11" spans="1:13" ht="17.399999999999999">
+      <c r="A11" s="35">
         <v>239976</v>
       </c>
       <c r="B11" s="3">
@@ -1208,32 +1208,32 @@
         <v>29.99</v>
       </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="29" t="s">
+      <c r="H11" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="31">
+      <c r="I11" s="25">
         <f>AVERAGE(B61:B91)</f>
         <v>38.305806451612902</v>
       </c>
-      <c r="J11" s="31">
+      <c r="J11" s="25">
         <f t="shared" ref="J11:M11" si="2">AVERAGE(C61:C91)</f>
         <v>40.755806451612884</v>
       </c>
-      <c r="K11" s="31">
+      <c r="K11" s="25">
         <f t="shared" si="2"/>
         <v>35.805806451612909</v>
       </c>
-      <c r="L11" s="31">
+      <c r="L11" s="25">
         <f t="shared" si="2"/>
         <v>24.515483870967742</v>
       </c>
-      <c r="M11" s="32">
+      <c r="M11" s="26">
         <f t="shared" si="2"/>
         <v>29.990000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="19">
-      <c r="A12" s="41">
+    <row r="12" spans="1:13" ht="17.399999999999999">
+      <c r="A12" s="35">
         <v>239977</v>
       </c>
       <c r="B12" s="3">
@@ -1252,32 +1252,32 @@
         <v>29.99</v>
       </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="29" t="s">
+      <c r="H12" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="31">
+      <c r="I12" s="25">
         <f>AVERAGE(B92:B121)</f>
         <v>38.443333333333342</v>
       </c>
-      <c r="J12" s="31">
+      <c r="J12" s="25">
         <f t="shared" ref="J12:M12" si="3">AVERAGE(C92:C121)</f>
         <v>40.893333333333324</v>
       </c>
-      <c r="K12" s="31">
+      <c r="K12" s="25">
         <f t="shared" si="3"/>
         <v>35.943333333333342</v>
       </c>
-      <c r="L12" s="31">
+      <c r="L12" s="25">
         <f t="shared" si="3"/>
         <v>24.57</v>
       </c>
-      <c r="M12" s="32">
+      <c r="M12" s="26">
         <f t="shared" si="3"/>
         <v>29.990000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="19">
-      <c r="A13" s="41">
+    <row r="13" spans="1:13" ht="17.399999999999999">
+      <c r="A13" s="35">
         <v>239978</v>
       </c>
       <c r="B13" s="3">
@@ -1296,32 +1296,32 @@
         <v>29.99</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="29" t="s">
+      <c r="H13" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="31">
+      <c r="I13" s="25">
         <f>AVERAGE(B122:B152)</f>
         <v>38.567096774193537</v>
       </c>
-      <c r="J13" s="31">
+      <c r="J13" s="25">
         <f t="shared" ref="J13:M13" si="4">AVERAGE(C122:C152)</f>
         <v>41.017096774193568</v>
       </c>
-      <c r="K13" s="31">
+      <c r="K13" s="25">
         <f t="shared" si="4"/>
         <v>36.06709677419353</v>
       </c>
-      <c r="L13" s="31">
+      <c r="L13" s="25">
         <f t="shared" si="4"/>
         <v>24.69935483870967</v>
       </c>
-      <c r="M13" s="32">
+      <c r="M13" s="26">
         <f t="shared" si="4"/>
         <v>29.990000000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="19">
-      <c r="A14" s="41">
+    <row r="14" spans="1:13" ht="17.399999999999999">
+      <c r="A14" s="35">
         <v>239979</v>
       </c>
       <c r="B14" s="3">
@@ -1340,32 +1340,32 @@
         <v>29.99</v>
       </c>
       <c r="G14" s="2"/>
-      <c r="H14" s="29" t="s">
+      <c r="H14" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="31">
+      <c r="I14" s="25">
         <f>AVERAGE(B153:B182)</f>
         <v>38.34666666666665</v>
       </c>
-      <c r="J14" s="31">
+      <c r="J14" s="25">
         <f t="shared" ref="J14:M14" si="5">AVERAGE(C153:C182)</f>
         <v>40.796666666666674</v>
       </c>
-      <c r="K14" s="31">
+      <c r="K14" s="25">
         <f t="shared" si="5"/>
         <v>35.84666666666665</v>
       </c>
-      <c r="L14" s="31">
+      <c r="L14" s="25">
         <f t="shared" si="5"/>
         <v>24.61333333333334</v>
       </c>
-      <c r="M14" s="32">
+      <c r="M14" s="26">
         <f t="shared" si="5"/>
         <v>29.906000000000013</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="19">
-      <c r="A15" s="41">
+    <row r="15" spans="1:13" ht="17.399999999999999">
+      <c r="A15" s="35">
         <v>239980</v>
       </c>
       <c r="B15" s="3">
@@ -1384,32 +1384,32 @@
         <v>29.99</v>
       </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="29" t="s">
+      <c r="H15" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="31">
+      <c r="I15" s="25">
         <f>AVERAGE(B183:B213)</f>
         <v>38.167096774193531</v>
       </c>
-      <c r="J15" s="31">
+      <c r="J15" s="25">
         <f t="shared" ref="J15:M15" si="6">AVERAGE(C183:C213)</f>
         <v>40.617096774193563</v>
       </c>
-      <c r="K15" s="31">
+      <c r="K15" s="25">
         <f t="shared" si="6"/>
         <v>35.667096774193531</v>
       </c>
-      <c r="L15" s="31">
+      <c r="L15" s="25">
         <f t="shared" si="6"/>
         <v>24.512258064516121</v>
       </c>
-      <c r="M15" s="32">
+      <c r="M15" s="26">
         <f t="shared" si="6"/>
         <v>29.850000000000016</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="19">
-      <c r="A16" s="41">
+    <row r="16" spans="1:13" ht="17.399999999999999">
+      <c r="A16" s="35">
         <v>239981</v>
       </c>
       <c r="B16" s="3">
@@ -1428,32 +1428,32 @@
         <v>29.99</v>
       </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="29" t="s">
+      <c r="H16" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="31">
+      <c r="I16" s="25">
         <f>AVERAGE(B214:B244)</f>
         <v>37.373548387096783</v>
       </c>
-      <c r="J16" s="31">
+      <c r="J16" s="25">
         <f t="shared" ref="J16:M16" si="7">AVERAGE(C214:C244)</f>
         <v>39.781935483870946</v>
       </c>
-      <c r="K16" s="31">
+      <c r="K16" s="25">
         <f t="shared" si="7"/>
         <v>34.941290322580656</v>
       </c>
-      <c r="L16" s="31">
+      <c r="L16" s="25">
         <f t="shared" si="7"/>
         <v>24.279999999999983</v>
       </c>
-      <c r="M16" s="32">
+      <c r="M16" s="26">
         <f t="shared" si="7"/>
         <v>29.863548387096788</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="19">
-      <c r="A17" s="41">
+    <row r="17" spans="1:14" ht="17.399999999999999">
+      <c r="A17" s="35">
         <v>239982</v>
       </c>
       <c r="B17" s="3">
@@ -1472,32 +1472,32 @@
         <v>29.99</v>
       </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="29" t="s">
+      <c r="H17" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="31">
+      <c r="I17" s="25">
         <f>AVERAGE(B245:B274)</f>
         <v>35.77999999999998</v>
       </c>
-      <c r="J17" s="31">
+      <c r="J17" s="25">
         <f t="shared" ref="J17:M17" si="8">AVERAGE(C245:C274)</f>
         <v>37.799999999999976</v>
       </c>
-      <c r="K17" s="31">
+      <c r="K17" s="25">
         <f t="shared" si="8"/>
         <v>33.980000000000011</v>
       </c>
-      <c r="L17" s="31">
+      <c r="L17" s="25">
         <f t="shared" si="8"/>
         <v>24.279999999999983</v>
       </c>
-      <c r="M17" s="32">
+      <c r="M17" s="26">
         <f t="shared" si="8"/>
         <v>29.990000000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="19">
-      <c r="A18" s="41">
+    <row r="18" spans="1:14" ht="17.399999999999999">
+      <c r="A18" s="35">
         <v>239983</v>
       </c>
       <c r="B18" s="3">
@@ -1516,32 +1516,32 @@
         <v>29.99</v>
       </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="29" t="s">
+      <c r="H18" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="31">
+      <c r="I18" s="25">
         <f>AVERAGE(B275:B305)</f>
         <v>34.731612903225802</v>
       </c>
-      <c r="J18" s="31">
+      <c r="J18" s="25">
         <f t="shared" ref="J18:M18" si="9">AVERAGE(C275:C305)</f>
         <v>36.751612903225791</v>
       </c>
-      <c r="K18" s="31">
+      <c r="K18" s="25">
         <f t="shared" si="9"/>
         <v>33.109032258064516</v>
       </c>
-      <c r="L18" s="31">
+      <c r="L18" s="25">
         <f t="shared" si="9"/>
         <v>23.476774193548387</v>
       </c>
-      <c r="M18" s="32">
+      <c r="M18" s="26">
         <f t="shared" si="9"/>
         <v>29.66096774193548</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="19">
-      <c r="A19" s="41">
+    <row r="19" spans="1:14" ht="17.399999999999999">
+      <c r="A19" s="35">
         <v>239984</v>
       </c>
       <c r="B19" s="3">
@@ -1560,32 +1560,32 @@
         <v>29.99</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="29" t="s">
+      <c r="H19" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="31">
+      <c r="I19" s="25">
         <f>AVERAGE(B306:B335)</f>
         <v>32.980000000000004</v>
       </c>
-      <c r="J19" s="31">
+      <c r="J19" s="25">
         <f t="shared" ref="J19:M19" si="10">AVERAGE(C306:C335)</f>
         <v>35</v>
       </c>
-      <c r="K19" s="31">
+      <c r="K19" s="25">
         <f t="shared" si="10"/>
         <v>31.679999999999996</v>
       </c>
-      <c r="L19" s="31">
+      <c r="L19" s="25">
         <f t="shared" si="10"/>
         <v>22.88</v>
       </c>
-      <c r="M19" s="32">
+      <c r="M19" s="26">
         <f t="shared" si="10"/>
         <v>29.419999999999991</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="20" thickBot="1">
-      <c r="A20" s="41">
+    <row r="20" spans="1:14" ht="18" thickBot="1">
+      <c r="A20" s="35">
         <v>239985</v>
       </c>
       <c r="B20" s="3">
@@ -1604,32 +1604,32 @@
         <v>29.99</v>
       </c>
       <c r="G20" s="2"/>
-      <c r="H20" s="30" t="s">
+      <c r="H20" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="I20" s="33">
+      <c r="I20" s="27">
         <f>AVERAGE(B336:B366)</f>
         <v>29.573548387096753</v>
       </c>
-      <c r="J20" s="33">
+      <c r="J20" s="27">
         <f t="shared" ref="J20:M20" si="11">AVERAGE(C336:C366)</f>
         <v>31.516129032258053</v>
       </c>
-      <c r="K20" s="33">
+      <c r="K20" s="27">
         <f t="shared" si="11"/>
         <v>28.19612903225806</v>
       </c>
-      <c r="L20" s="33">
+      <c r="L20" s="27">
         <f t="shared" si="11"/>
         <v>22.647741935483879</v>
       </c>
-      <c r="M20" s="34">
+      <c r="M20" s="28">
         <f t="shared" si="11"/>
         <v>27.596451612903216</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="20" thickBot="1">
-      <c r="A21" s="41">
+    <row r="21" spans="1:14" ht="18" thickBot="1">
+      <c r="A21" s="35">
         <v>239986</v>
       </c>
       <c r="B21" s="3">
@@ -1651,8 +1651,8 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:14" ht="19">
-      <c r="A22" s="41">
+    <row r="22" spans="1:14" ht="17.399999999999999">
+      <c r="A22" s="35">
         <v>239987</v>
       </c>
       <c r="B22" s="3">
@@ -1671,17 +1671,17 @@
         <v>29.99</v>
       </c>
       <c r="G22" s="2"/>
-      <c r="H22" s="43" t="s">
+      <c r="H22" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="45"/>
-    </row>
-    <row r="23" spans="1:14" ht="20" thickBot="1">
-      <c r="A23" s="41">
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="39"/>
+    </row>
+    <row r="23" spans="1:14" ht="18" thickBot="1">
+      <c r="A23" s="35">
         <v>239988</v>
       </c>
       <c r="B23" s="3">
@@ -1700,15 +1700,15 @@
         <v>29.99</v>
       </c>
       <c r="G23" s="2"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="48"/>
-    </row>
-    <row r="24" spans="1:14" ht="20" thickBot="1">
-      <c r="A24" s="41">
+      <c r="H23" s="40"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="42"/>
+    </row>
+    <row r="24" spans="1:14" ht="18" thickBot="1">
+      <c r="A24" s="35">
         <v>239989</v>
       </c>
       <c r="B24" s="3">
@@ -1728,8 +1728,8 @@
       </c>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:14" ht="20" thickBot="1">
-      <c r="A25" s="41">
+    <row r="25" spans="1:14" ht="18" thickBot="1">
+      <c r="A25" s="35">
         <v>239990</v>
       </c>
       <c r="B25" s="3">
@@ -1748,27 +1748,27 @@
         <v>29.99</v>
       </c>
       <c r="G25" s="2"/>
-      <c r="H25" s="36" t="s">
+      <c r="H25" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="I25" s="35" t="s">
+      <c r="I25" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="J25" s="24" t="s">
+      <c r="J25" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="K25" s="25" t="s">
+      <c r="K25" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="L25" s="26" t="s">
+      <c r="L25" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="M25" s="27" t="s">
+      <c r="M25" s="21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="20" thickBot="1">
-      <c r="A26" s="41">
+    <row r="26" spans="1:14" ht="18" thickBot="1">
+      <c r="A26" s="35">
         <v>239991</v>
       </c>
       <c r="B26" s="3">
@@ -1787,32 +1787,32 @@
         <v>29.99</v>
       </c>
       <c r="G26" s="2"/>
-      <c r="H26" s="37" t="s">
+      <c r="H26" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="I26" s="38">
+      <c r="I26" s="32">
         <f>AVERAGE(B2:B366)</f>
         <v>36.538904109589154</v>
       </c>
-      <c r="J26" s="38">
+      <c r="J26" s="32">
         <f>AVERAGE(C2:C366)</f>
         <v>38.835068493150565</v>
       </c>
-      <c r="K26" s="38">
+      <c r="K26" s="32">
         <f>AVERAGE(D2:D366)</f>
         <v>34.370684931506652</v>
       </c>
-      <c r="L26" s="38">
+      <c r="L26" s="32">
         <f>AVERAGE(E2:E366)</f>
         <v>24.107123287671175</v>
       </c>
-      <c r="M26" s="39">
+      <c r="M26" s="33">
         <f>AVERAGE(F2:F366)</f>
         <v>29.682383561643721</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="19">
-      <c r="A27" s="41">
+    <row r="27" spans="1:14" ht="17.399999999999999">
+      <c r="A27" s="35">
         <v>239992</v>
       </c>
       <c r="B27" s="3">
@@ -1834,8 +1834,8 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:14" ht="19">
-      <c r="A28" s="41">
+    <row r="28" spans="1:14" ht="17.399999999999999">
+      <c r="A28" s="35">
         <v>239993</v>
       </c>
       <c r="B28" s="3">
@@ -1857,8 +1857,8 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:14" ht="19">
-      <c r="A29" s="41">
+    <row r="29" spans="1:14" ht="17.399999999999999">
+      <c r="A29" s="35">
         <v>239994</v>
       </c>
       <c r="B29" s="3">
@@ -1885,8 +1885,8 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:14" ht="19">
-      <c r="A30" s="41">
+    <row r="30" spans="1:14" ht="17.399999999999999">
+      <c r="A30" s="35">
         <v>239995</v>
       </c>
       <c r="B30" s="3">
@@ -1913,8 +1913,8 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="1:14" ht="19">
-      <c r="A31" s="41">
+    <row r="31" spans="1:14" ht="17.399999999999999">
+      <c r="A31" s="35">
         <v>239996</v>
       </c>
       <c r="B31" s="3">
@@ -1935,8 +1935,8 @@
       <c r="G31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:14" ht="20" thickBot="1">
-      <c r="A32" s="42">
+    <row r="32" spans="1:14" ht="18" thickBot="1">
+      <c r="A32" s="36">
         <v>239997</v>
       </c>
       <c r="B32" s="7">
@@ -1957,8 +1957,8 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:9" ht="19">
-      <c r="A33" s="40">
+    <row r="33" spans="1:9" ht="17.399999999999999">
+      <c r="A33" s="34">
         <v>239998</v>
       </c>
       <c r="B33" s="4">
@@ -1980,8 +1980,8 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" ht="19">
-      <c r="A34" s="41">
+    <row r="34" spans="1:9" ht="17.399999999999999">
+      <c r="A34" s="35">
         <v>239999</v>
       </c>
       <c r="B34" s="3">
@@ -2003,8 +2003,8 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" ht="19">
-      <c r="A35" s="41">
+    <row r="35" spans="1:9" ht="17.399999999999999">
+      <c r="A35" s="35">
         <v>240000</v>
       </c>
       <c r="B35" s="3">
@@ -2026,8 +2026,8 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" ht="19">
-      <c r="A36" s="41">
+    <row r="36" spans="1:9" ht="17.399999999999999">
+      <c r="A36" s="35">
         <v>240001</v>
       </c>
       <c r="B36" s="3">
@@ -2049,8 +2049,8 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" ht="19">
-      <c r="A37" s="41">
+    <row r="37" spans="1:9" ht="17.399999999999999">
+      <c r="A37" s="35">
         <v>240002</v>
       </c>
       <c r="B37" s="3">
@@ -2072,8 +2072,8 @@
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:9" ht="19">
-      <c r="A38" s="41">
+    <row r="38" spans="1:9" ht="17.399999999999999">
+      <c r="A38" s="35">
         <v>240003</v>
       </c>
       <c r="B38" s="3">
@@ -2095,8 +2095,8 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:9" ht="19">
-      <c r="A39" s="41">
+    <row r="39" spans="1:9" ht="17.399999999999999">
+      <c r="A39" s="35">
         <v>240004</v>
       </c>
       <c r="B39" s="3">
@@ -2118,8 +2118,8 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9" ht="19">
-      <c r="A40" s="41">
+    <row r="40" spans="1:9" ht="17.399999999999999">
+      <c r="A40" s="35">
         <v>240005</v>
       </c>
       <c r="B40" s="3">
@@ -2141,8 +2141,8 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="1:9" ht="19">
-      <c r="A41" s="41">
+    <row r="41" spans="1:9" ht="17.399999999999999">
+      <c r="A41" s="35">
         <v>240006</v>
       </c>
       <c r="B41" s="3">
@@ -2164,8 +2164,8 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:9" ht="19">
-      <c r="A42" s="41">
+    <row r="42" spans="1:9" ht="17.399999999999999">
+      <c r="A42" s="35">
         <v>240007</v>
       </c>
       <c r="B42" s="3">
@@ -2187,8 +2187,8 @@
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:9" ht="19">
-      <c r="A43" s="41">
+    <row r="43" spans="1:9" ht="17.399999999999999">
+      <c r="A43" s="35">
         <v>240008</v>
       </c>
       <c r="B43" s="3">
@@ -2210,8 +2210,8 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:9" ht="19">
-      <c r="A44" s="41">
+    <row r="44" spans="1:9" ht="17.399999999999999">
+      <c r="A44" s="35">
         <v>240009</v>
       </c>
       <c r="B44" s="3">
@@ -2233,8 +2233,8 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:9" ht="19">
-      <c r="A45" s="41">
+    <row r="45" spans="1:9" ht="17.399999999999999">
+      <c r="A45" s="35">
         <v>240010</v>
       </c>
       <c r="B45" s="3">
@@ -2256,8 +2256,8 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:9" ht="19">
-      <c r="A46" s="41">
+    <row r="46" spans="1:9" ht="17.399999999999999">
+      <c r="A46" s="35">
         <v>240011</v>
       </c>
       <c r="B46" s="3">
@@ -2279,8 +2279,8 @@
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="1:9" ht="19">
-      <c r="A47" s="41">
+    <row r="47" spans="1:9" ht="17.399999999999999">
+      <c r="A47" s="35">
         <v>240012</v>
       </c>
       <c r="B47" s="3">
@@ -2302,8 +2302,8 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:9" ht="19">
-      <c r="A48" s="41">
+    <row r="48" spans="1:9" ht="17.399999999999999">
+      <c r="A48" s="35">
         <v>240013</v>
       </c>
       <c r="B48" s="3">
@@ -2325,8 +2325,8 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="1:9" ht="19">
-      <c r="A49" s="41">
+    <row r="49" spans="1:9" ht="17.399999999999999">
+      <c r="A49" s="35">
         <v>240014</v>
       </c>
       <c r="B49" s="3">
@@ -2348,8 +2348,8 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="1:9" ht="19">
-      <c r="A50" s="41">
+    <row r="50" spans="1:9" ht="17.399999999999999">
+      <c r="A50" s="35">
         <v>240015</v>
       </c>
       <c r="B50" s="3">
@@ -2371,8 +2371,8 @@
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="1:9" ht="19">
-      <c r="A51" s="41">
+    <row r="51" spans="1:9" ht="17.399999999999999">
+      <c r="A51" s="35">
         <v>240016</v>
       </c>
       <c r="B51" s="3">
@@ -2394,8 +2394,8 @@
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="1:9" ht="19">
-      <c r="A52" s="41">
+    <row r="52" spans="1:9" ht="17.399999999999999">
+      <c r="A52" s="35">
         <v>240017</v>
       </c>
       <c r="B52" s="3">
@@ -2417,8 +2417,8 @@
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="1:9" ht="19">
-      <c r="A53" s="41">
+    <row r="53" spans="1:9" ht="17.399999999999999">
+      <c r="A53" s="35">
         <v>240018</v>
       </c>
       <c r="B53" s="3">
@@ -2440,8 +2440,8 @@
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="1:9" ht="19">
-      <c r="A54" s="41">
+    <row r="54" spans="1:9" ht="17.399999999999999">
+      <c r="A54" s="35">
         <v>240019</v>
       </c>
       <c r="B54" s="3">
@@ -2463,8 +2463,8 @@
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="1:9" ht="19">
-      <c r="A55" s="41">
+    <row r="55" spans="1:9" ht="17.399999999999999">
+      <c r="A55" s="35">
         <v>240020</v>
       </c>
       <c r="B55" s="3">
@@ -2486,8 +2486,8 @@
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="1:9" ht="19">
-      <c r="A56" s="41">
+    <row r="56" spans="1:9" ht="17.399999999999999">
+      <c r="A56" s="35">
         <v>240021</v>
       </c>
       <c r="B56" s="3">
@@ -2508,8 +2508,8 @@
       <c r="G56" s="2"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="1:9" ht="19">
-      <c r="A57" s="41">
+    <row r="57" spans="1:9" ht="17.399999999999999">
+      <c r="A57" s="35">
         <v>240022</v>
       </c>
       <c r="B57" s="3">
@@ -2528,8 +2528,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="19">
-      <c r="A58" s="41">
+    <row r="58" spans="1:9" ht="17.399999999999999">
+      <c r="A58" s="35">
         <v>240023</v>
       </c>
       <c r="B58" s="3">
@@ -2548,8 +2548,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="19">
-      <c r="A59" s="41">
+    <row r="59" spans="1:9" ht="17.399999999999999">
+      <c r="A59" s="35">
         <v>240024</v>
       </c>
       <c r="B59" s="3">
@@ -2568,8 +2568,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="20" thickBot="1">
-      <c r="A60" s="42">
+    <row r="60" spans="1:9" ht="18" thickBot="1">
+      <c r="A60" s="36">
         <v>240025</v>
       </c>
       <c r="B60" s="7">
@@ -2588,8 +2588,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="19">
-      <c r="A61" s="40">
+    <row r="61" spans="1:9" ht="17.399999999999999">
+      <c r="A61" s="34">
         <v>240026</v>
       </c>
       <c r="B61" s="4">
@@ -2608,8 +2608,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="19">
-      <c r="A62" s="41">
+    <row r="62" spans="1:9" ht="17.399999999999999">
+      <c r="A62" s="35">
         <v>240027</v>
       </c>
       <c r="B62" s="3">
@@ -2628,8 +2628,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="19">
-      <c r="A63" s="41">
+    <row r="63" spans="1:9" ht="17.399999999999999">
+      <c r="A63" s="35">
         <v>240028</v>
       </c>
       <c r="B63" s="3">
@@ -2648,8 +2648,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="19">
-      <c r="A64" s="41">
+    <row r="64" spans="1:9" ht="17.399999999999999">
+      <c r="A64" s="35">
         <v>240029</v>
       </c>
       <c r="B64" s="3">
@@ -2668,8 +2668,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="19">
-      <c r="A65" s="41">
+    <row r="65" spans="1:14" ht="17.399999999999999">
+      <c r="A65" s="35">
         <v>240030</v>
       </c>
       <c r="B65" s="3">
@@ -2695,8 +2695,8 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="1:14" ht="19">
-      <c r="A66" s="41">
+    <row r="66" spans="1:14" ht="17.399999999999999">
+      <c r="A66" s="35">
         <v>240031</v>
       </c>
       <c r="B66" s="3">
@@ -2722,8 +2722,8 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="1:14" ht="19">
-      <c r="A67" s="41">
+    <row r="67" spans="1:14" ht="17.399999999999999">
+      <c r="A67" s="35">
         <v>240032</v>
       </c>
       <c r="B67" s="3">
@@ -2742,8 +2742,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="19">
-      <c r="A68" s="41">
+    <row r="68" spans="1:14" ht="17.399999999999999">
+      <c r="A68" s="35">
         <v>240033</v>
       </c>
       <c r="B68" s="3">
@@ -2762,8 +2762,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="19">
-      <c r="A69" s="41">
+    <row r="69" spans="1:14" ht="17.399999999999999">
+      <c r="A69" s="35">
         <v>240034</v>
       </c>
       <c r="B69" s="3">
@@ -2782,8 +2782,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="19">
-      <c r="A70" s="41">
+    <row r="70" spans="1:14" ht="17.399999999999999">
+      <c r="A70" s="35">
         <v>240035</v>
       </c>
       <c r="B70" s="3">
@@ -2802,8 +2802,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="19">
-      <c r="A71" s="41">
+    <row r="71" spans="1:14" ht="17.399999999999999">
+      <c r="A71" s="35">
         <v>240036</v>
       </c>
       <c r="B71" s="3">
@@ -2822,8 +2822,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="19">
-      <c r="A72" s="41">
+    <row r="72" spans="1:14" ht="17.399999999999999">
+      <c r="A72" s="35">
         <v>240037</v>
       </c>
       <c r="B72" s="3">
@@ -2842,8 +2842,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="19">
-      <c r="A73" s="41">
+    <row r="73" spans="1:14" ht="17.399999999999999">
+      <c r="A73" s="35">
         <v>240038</v>
       </c>
       <c r="B73" s="3">
@@ -2862,8 +2862,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="19">
-      <c r="A74" s="41">
+    <row r="74" spans="1:14" ht="17.399999999999999">
+      <c r="A74" s="35">
         <v>240039</v>
       </c>
       <c r="B74" s="3">
@@ -2882,8 +2882,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="19">
-      <c r="A75" s="41">
+    <row r="75" spans="1:14" ht="17.399999999999999">
+      <c r="A75" s="35">
         <v>240040</v>
       </c>
       <c r="B75" s="3">
@@ -2902,8 +2902,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="19">
-      <c r="A76" s="41">
+    <row r="76" spans="1:14" ht="17.399999999999999">
+      <c r="A76" s="35">
         <v>240041</v>
       </c>
       <c r="B76" s="3">
@@ -2922,8 +2922,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="19">
-      <c r="A77" s="41">
+    <row r="77" spans="1:14" ht="17.399999999999999">
+      <c r="A77" s="35">
         <v>240042</v>
       </c>
       <c r="B77" s="3">
@@ -2942,8 +2942,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="19">
-      <c r="A78" s="41">
+    <row r="78" spans="1:14" ht="17.399999999999999">
+      <c r="A78" s="35">
         <v>240043</v>
       </c>
       <c r="B78" s="3">
@@ -2962,8 +2962,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="19">
-      <c r="A79" s="41">
+    <row r="79" spans="1:14" ht="17.399999999999999">
+      <c r="A79" s="35">
         <v>240044</v>
       </c>
       <c r="B79" s="3">
@@ -2982,8 +2982,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="19">
-      <c r="A80" s="41">
+    <row r="80" spans="1:14" ht="17.399999999999999">
+      <c r="A80" s="35">
         <v>240045</v>
       </c>
       <c r="B80" s="3">
@@ -3002,8 +3002,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="19">
-      <c r="A81" s="41">
+    <row r="81" spans="1:14" ht="17.399999999999999">
+      <c r="A81" s="35">
         <v>240046</v>
       </c>
       <c r="B81" s="3">
@@ -3022,8 +3022,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="19">
-      <c r="A82" s="41">
+    <row r="82" spans="1:14" ht="17.399999999999999">
+      <c r="A82" s="35">
         <v>240047</v>
       </c>
       <c r="B82" s="3">
@@ -3042,8 +3042,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="19">
-      <c r="A83" s="41">
+    <row r="83" spans="1:14" ht="17.399999999999999">
+      <c r="A83" s="35">
         <v>240048</v>
       </c>
       <c r="B83" s="3">
@@ -3062,8 +3062,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="19">
-      <c r="A84" s="41">
+    <row r="84" spans="1:14" ht="17.399999999999999">
+      <c r="A84" s="35">
         <v>240049</v>
       </c>
       <c r="B84" s="3">
@@ -3082,8 +3082,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="19">
-      <c r="A85" s="41">
+    <row r="85" spans="1:14" ht="17.399999999999999">
+      <c r="A85" s="35">
         <v>240050</v>
       </c>
       <c r="B85" s="3">
@@ -3102,8 +3102,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="19">
-      <c r="A86" s="41">
+    <row r="86" spans="1:14" ht="17.399999999999999">
+      <c r="A86" s="35">
         <v>240051</v>
       </c>
       <c r="B86" s="3">
@@ -3122,8 +3122,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="19">
-      <c r="A87" s="41">
+    <row r="87" spans="1:14" ht="17.399999999999999">
+      <c r="A87" s="35">
         <v>240052</v>
       </c>
       <c r="B87" s="3">
@@ -3142,8 +3142,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="19">
-      <c r="A88" s="41">
+    <row r="88" spans="1:14" ht="17.399999999999999">
+      <c r="A88" s="35">
         <v>240053</v>
       </c>
       <c r="B88" s="3">
@@ -3162,8 +3162,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="19">
-      <c r="A89" s="41">
+    <row r="89" spans="1:14" ht="17.399999999999999">
+      <c r="A89" s="35">
         <v>240054</v>
       </c>
       <c r="B89" s="3">
@@ -3182,8 +3182,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="19">
-      <c r="A90" s="41">
+    <row r="90" spans="1:14" ht="17.399999999999999">
+      <c r="A90" s="35">
         <v>240055</v>
       </c>
       <c r="B90" s="3">
@@ -3202,8 +3202,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="20" thickBot="1">
-      <c r="A91" s="42">
+    <row r="91" spans="1:14" ht="18" thickBot="1">
+      <c r="A91" s="36">
         <v>240056</v>
       </c>
       <c r="B91" s="7">
@@ -3222,8 +3222,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="19">
-      <c r="A92" s="40">
+    <row r="92" spans="1:14" ht="17.399999999999999">
+      <c r="A92" s="34">
         <v>240057</v>
       </c>
       <c r="B92" s="4">
@@ -3242,8 +3242,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="19">
-      <c r="A93" s="41">
+    <row r="93" spans="1:14" ht="17.399999999999999">
+      <c r="A93" s="35">
         <v>240058</v>
       </c>
       <c r="B93" s="3">
@@ -3262,8 +3262,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="19">
-      <c r="A94" s="41">
+    <row r="94" spans="1:14" ht="17.399999999999999">
+      <c r="A94" s="35">
         <v>240059</v>
       </c>
       <c r="B94" s="3">
@@ -3282,8 +3282,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="95" spans="1:14" ht="19">
-      <c r="A95" s="41">
+    <row r="95" spans="1:14" ht="17.399999999999999">
+      <c r="A95" s="35">
         <v>240060</v>
       </c>
       <c r="B95" s="3">
@@ -3302,8 +3302,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="19">
-      <c r="A96" s="41">
+    <row r="96" spans="1:14" ht="17.399999999999999">
+      <c r="A96" s="35">
         <v>240061</v>
       </c>
       <c r="B96" s="3">
@@ -3329,8 +3329,8 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="1:14" ht="19">
-      <c r="A97" s="41">
+    <row r="97" spans="1:14" ht="17.399999999999999">
+      <c r="A97" s="35">
         <v>240062</v>
       </c>
       <c r="B97" s="3">
@@ -3356,8 +3356,8 @@
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
     </row>
-    <row r="98" spans="1:14" ht="19">
-      <c r="A98" s="41">
+    <row r="98" spans="1:14" ht="17.399999999999999">
+      <c r="A98" s="35">
         <v>240063</v>
       </c>
       <c r="B98" s="3">
@@ -3376,8 +3376,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="19">
-      <c r="A99" s="41">
+    <row r="99" spans="1:14" ht="17.399999999999999">
+      <c r="A99" s="35">
         <v>240064</v>
       </c>
       <c r="B99" s="3">
@@ -3396,8 +3396,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="19">
-      <c r="A100" s="41">
+    <row r="100" spans="1:14" ht="17.399999999999999">
+      <c r="A100" s="35">
         <v>240065</v>
       </c>
       <c r="B100" s="3">
@@ -3416,8 +3416,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="19">
-      <c r="A101" s="41">
+    <row r="101" spans="1:14" ht="17.399999999999999">
+      <c r="A101" s="35">
         <v>240066</v>
       </c>
       <c r="B101" s="3">
@@ -3436,8 +3436,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="19">
-      <c r="A102" s="41">
+    <row r="102" spans="1:14" ht="17.399999999999999">
+      <c r="A102" s="35">
         <v>240067</v>
       </c>
       <c r="B102" s="3">
@@ -3456,8 +3456,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="19">
-      <c r="A103" s="41">
+    <row r="103" spans="1:14" ht="17.399999999999999">
+      <c r="A103" s="35">
         <v>240068</v>
       </c>
       <c r="B103" s="3">
@@ -3476,8 +3476,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="19">
-      <c r="A104" s="41">
+    <row r="104" spans="1:14" ht="17.399999999999999">
+      <c r="A104" s="35">
         <v>240069</v>
       </c>
       <c r="B104" s="3">
@@ -3496,8 +3496,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="19">
-      <c r="A105" s="41">
+    <row r="105" spans="1:14" ht="17.399999999999999">
+      <c r="A105" s="35">
         <v>240070</v>
       </c>
       <c r="B105" s="3">
@@ -3516,8 +3516,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="106" spans="1:14" ht="19">
-      <c r="A106" s="41">
+    <row r="106" spans="1:14" ht="17.399999999999999">
+      <c r="A106" s="35">
         <v>240071</v>
       </c>
       <c r="B106" s="3">
@@ -3536,8 +3536,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="19">
-      <c r="A107" s="41">
+    <row r="107" spans="1:14" ht="17.399999999999999">
+      <c r="A107" s="35">
         <v>240072</v>
       </c>
       <c r="B107" s="3">
@@ -3556,8 +3556,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="19">
-      <c r="A108" s="41">
+    <row r="108" spans="1:14" ht="17.399999999999999">
+      <c r="A108" s="35">
         <v>240073</v>
       </c>
       <c r="B108" s="3">
@@ -3576,8 +3576,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="109" spans="1:14" ht="19">
-      <c r="A109" s="41">
+    <row r="109" spans="1:14" ht="17.399999999999999">
+      <c r="A109" s="35">
         <v>240074</v>
       </c>
       <c r="B109" s="3">
@@ -3596,8 +3596,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="110" spans="1:14" ht="19">
-      <c r="A110" s="41">
+    <row r="110" spans="1:14" ht="17.399999999999999">
+      <c r="A110" s="35">
         <v>240075</v>
       </c>
       <c r="B110" s="3">
@@ -3616,8 +3616,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="111" spans="1:14" ht="19">
-      <c r="A111" s="41">
+    <row r="111" spans="1:14" ht="17.399999999999999">
+      <c r="A111" s="35">
         <v>240076</v>
       </c>
       <c r="B111" s="3">
@@ -3636,8 +3636,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="112" spans="1:14" ht="19">
-      <c r="A112" s="41">
+    <row r="112" spans="1:14" ht="17.399999999999999">
+      <c r="A112" s="35">
         <v>240077</v>
       </c>
       <c r="B112" s="3">
@@ -3656,8 +3656,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="113" spans="1:14" ht="19">
-      <c r="A113" s="41">
+    <row r="113" spans="1:14" ht="17.399999999999999">
+      <c r="A113" s="35">
         <v>240078</v>
       </c>
       <c r="B113" s="3">
@@ -3676,8 +3676,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="114" spans="1:14" ht="19">
-      <c r="A114" s="41">
+    <row r="114" spans="1:14" ht="17.399999999999999">
+      <c r="A114" s="35">
         <v>240079</v>
       </c>
       <c r="B114" s="3">
@@ -3696,8 +3696,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="115" spans="1:14" ht="19">
-      <c r="A115" s="41">
+    <row r="115" spans="1:14" ht="17.399999999999999">
+      <c r="A115" s="35">
         <v>240080</v>
       </c>
       <c r="B115" s="3">
@@ -3716,8 +3716,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="116" spans="1:14" ht="19">
-      <c r="A116" s="41">
+    <row r="116" spans="1:14" ht="17.399999999999999">
+      <c r="A116" s="35">
         <v>240081</v>
       </c>
       <c r="B116" s="3">
@@ -3736,8 +3736,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="117" spans="1:14" ht="19">
-      <c r="A117" s="41">
+    <row r="117" spans="1:14" ht="17.399999999999999">
+      <c r="A117" s="35">
         <v>240082</v>
       </c>
       <c r="B117" s="3">
@@ -3756,8 +3756,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="118" spans="1:14" ht="19">
-      <c r="A118" s="41">
+    <row r="118" spans="1:14" ht="17.399999999999999">
+      <c r="A118" s="35">
         <v>240083</v>
       </c>
       <c r="B118" s="3">
@@ -3776,8 +3776,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="19">
-      <c r="A119" s="41">
+    <row r="119" spans="1:14" ht="17.399999999999999">
+      <c r="A119" s="35">
         <v>240084</v>
       </c>
       <c r="B119" s="3">
@@ -3796,8 +3796,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="120" spans="1:14" ht="19">
-      <c r="A120" s="41">
+    <row r="120" spans="1:14" ht="17.399999999999999">
+      <c r="A120" s="35">
         <v>240085</v>
       </c>
       <c r="B120" s="3">
@@ -3816,8 +3816,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="20" thickBot="1">
-      <c r="A121" s="42">
+    <row r="121" spans="1:14" ht="18" thickBot="1">
+      <c r="A121" s="36">
         <v>240086</v>
       </c>
       <c r="B121" s="7">
@@ -3836,8 +3836,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="19">
-      <c r="A122" s="40">
+    <row r="122" spans="1:14" ht="17.399999999999999">
+      <c r="A122" s="34">
         <v>240087</v>
       </c>
       <c r="B122" s="4">
@@ -3856,8 +3856,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="123" spans="1:14" ht="19">
-      <c r="A123" s="41">
+    <row r="123" spans="1:14" ht="17.399999999999999">
+      <c r="A123" s="35">
         <v>240088</v>
       </c>
       <c r="B123" s="3">
@@ -3876,8 +3876,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="124" spans="1:14" ht="19">
-      <c r="A124" s="41">
+    <row r="124" spans="1:14" ht="17.399999999999999">
+      <c r="A124" s="35">
         <v>240089</v>
       </c>
       <c r="B124" s="3">
@@ -3896,8 +3896,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="125" spans="1:14" ht="19">
-      <c r="A125" s="41">
+    <row r="125" spans="1:14" ht="17.399999999999999">
+      <c r="A125" s="35">
         <v>240090</v>
       </c>
       <c r="B125" s="3">
@@ -3923,8 +3923,8 @@
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
     </row>
-    <row r="126" spans="1:14" ht="19">
-      <c r="A126" s="41">
+    <row r="126" spans="1:14" ht="17.399999999999999">
+      <c r="A126" s="35">
         <v>240091</v>
       </c>
       <c r="B126" s="3">
@@ -3950,8 +3950,8 @@
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
     </row>
-    <row r="127" spans="1:14" ht="19">
-      <c r="A127" s="41">
+    <row r="127" spans="1:14" ht="17.399999999999999">
+      <c r="A127" s="35">
         <v>240092</v>
       </c>
       <c r="B127" s="3">
@@ -3977,8 +3977,8 @@
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
     </row>
-    <row r="128" spans="1:14" ht="19">
-      <c r="A128" s="41">
+    <row r="128" spans="1:14" ht="17.399999999999999">
+      <c r="A128" s="35">
         <v>240093</v>
       </c>
       <c r="B128" s="3">
@@ -3997,8 +3997,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="19">
-      <c r="A129" s="41">
+    <row r="129" spans="1:6" ht="17.399999999999999">
+      <c r="A129" s="35">
         <v>240094</v>
       </c>
       <c r="B129" s="3">
@@ -4017,8 +4017,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="19">
-      <c r="A130" s="41">
+    <row r="130" spans="1:6" ht="17.399999999999999">
+      <c r="A130" s="35">
         <v>240095</v>
       </c>
       <c r="B130" s="3">
@@ -4037,8 +4037,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="19">
-      <c r="A131" s="41">
+    <row r="131" spans="1:6" ht="17.399999999999999">
+      <c r="A131" s="35">
         <v>240096</v>
       </c>
       <c r="B131" s="3">
@@ -4057,8 +4057,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="19">
-      <c r="A132" s="41">
+    <row r="132" spans="1:6" ht="17.399999999999999">
+      <c r="A132" s="35">
         <v>240097</v>
       </c>
       <c r="B132" s="3">
@@ -4077,8 +4077,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="19">
-      <c r="A133" s="41">
+    <row r="133" spans="1:6" ht="17.399999999999999">
+      <c r="A133" s="35">
         <v>240098</v>
       </c>
       <c r="B133" s="3">
@@ -4097,8 +4097,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="19">
-      <c r="A134" s="41">
+    <row r="134" spans="1:6" ht="17.399999999999999">
+      <c r="A134" s="35">
         <v>240099</v>
       </c>
       <c r="B134" s="3">
@@ -4117,8 +4117,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="19">
-      <c r="A135" s="41">
+    <row r="135" spans="1:6" ht="17.399999999999999">
+      <c r="A135" s="35">
         <v>240100</v>
       </c>
       <c r="B135" s="3">
@@ -4137,8 +4137,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="19">
-      <c r="A136" s="41">
+    <row r="136" spans="1:6" ht="17.399999999999999">
+      <c r="A136" s="35">
         <v>240101</v>
       </c>
       <c r="B136" s="3">
@@ -4157,8 +4157,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="19">
-      <c r="A137" s="41">
+    <row r="137" spans="1:6" ht="17.399999999999999">
+      <c r="A137" s="35">
         <v>240102</v>
       </c>
       <c r="B137" s="3">
@@ -4177,8 +4177,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="19">
-      <c r="A138" s="41">
+    <row r="138" spans="1:6" ht="17.399999999999999">
+      <c r="A138" s="35">
         <v>240103</v>
       </c>
       <c r="B138" s="3">
@@ -4197,8 +4197,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="19">
-      <c r="A139" s="41">
+    <row r="139" spans="1:6" ht="17.399999999999999">
+      <c r="A139" s="35">
         <v>240104</v>
       </c>
       <c r="B139" s="3">
@@ -4217,8 +4217,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="19">
-      <c r="A140" s="41">
+    <row r="140" spans="1:6" ht="17.399999999999999">
+      <c r="A140" s="35">
         <v>240105</v>
       </c>
       <c r="B140" s="3">
@@ -4237,8 +4237,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="19">
-      <c r="A141" s="41">
+    <row r="141" spans="1:6" ht="17.399999999999999">
+      <c r="A141" s="35">
         <v>240106</v>
       </c>
       <c r="B141" s="3">
@@ -4257,8 +4257,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="19">
-      <c r="A142" s="41">
+    <row r="142" spans="1:6" ht="17.399999999999999">
+      <c r="A142" s="35">
         <v>240107</v>
       </c>
       <c r="B142" s="3">
@@ -4277,8 +4277,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="19">
-      <c r="A143" s="41">
+    <row r="143" spans="1:6" ht="17.399999999999999">
+      <c r="A143" s="35">
         <v>240108</v>
       </c>
       <c r="B143" s="3">
@@ -4297,8 +4297,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="19">
-      <c r="A144" s="41">
+    <row r="144" spans="1:6" ht="17.399999999999999">
+      <c r="A144" s="35">
         <v>240109</v>
       </c>
       <c r="B144" s="3">
@@ -4317,8 +4317,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="145" spans="1:14" ht="19">
-      <c r="A145" s="41">
+    <row r="145" spans="1:14" ht="17.399999999999999">
+      <c r="A145" s="35">
         <v>240110</v>
       </c>
       <c r="B145" s="3">
@@ -4337,8 +4337,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="146" spans="1:14" ht="19">
-      <c r="A146" s="41">
+    <row r="146" spans="1:14" ht="17.399999999999999">
+      <c r="A146" s="35">
         <v>240111</v>
       </c>
       <c r="B146" s="3">
@@ -4357,8 +4357,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="147" spans="1:14" ht="19">
-      <c r="A147" s="41">
+    <row r="147" spans="1:14" ht="17.399999999999999">
+      <c r="A147" s="35">
         <v>240112</v>
       </c>
       <c r="B147" s="3">
@@ -4377,8 +4377,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="148" spans="1:14" ht="19">
-      <c r="A148" s="41">
+    <row r="148" spans="1:14" ht="17.399999999999999">
+      <c r="A148" s="35">
         <v>240113</v>
       </c>
       <c r="B148" s="3">
@@ -4397,8 +4397,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="149" spans="1:14" ht="19">
-      <c r="A149" s="41">
+    <row r="149" spans="1:14" ht="17.399999999999999">
+      <c r="A149" s="35">
         <v>240114</v>
       </c>
       <c r="B149" s="3">
@@ -4417,8 +4417,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="150" spans="1:14" ht="19">
-      <c r="A150" s="41">
+    <row r="150" spans="1:14" ht="17.399999999999999">
+      <c r="A150" s="35">
         <v>240115</v>
       </c>
       <c r="B150" s="3">
@@ -4437,8 +4437,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="151" spans="1:14" ht="19">
-      <c r="A151" s="41">
+    <row r="151" spans="1:14" ht="17.399999999999999">
+      <c r="A151" s="35">
         <v>240116</v>
       </c>
       <c r="B151" s="3">
@@ -4457,8 +4457,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="152" spans="1:14" ht="20" thickBot="1">
-      <c r="A152" s="42">
+    <row r="152" spans="1:14" ht="18" thickBot="1">
+      <c r="A152" s="36">
         <v>240117</v>
       </c>
       <c r="B152" s="7">
@@ -4477,8 +4477,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="153" spans="1:14" ht="19">
-      <c r="A153" s="40">
+    <row r="153" spans="1:14" ht="17.399999999999999">
+      <c r="A153" s="34">
         <v>240118</v>
       </c>
       <c r="B153" s="4">
@@ -4497,8 +4497,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="154" spans="1:14" ht="19">
-      <c r="A154" s="41">
+    <row r="154" spans="1:14" ht="17.399999999999999">
+      <c r="A154" s="35">
         <v>240119</v>
       </c>
       <c r="B154" s="3">
@@ -4517,8 +4517,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="155" spans="1:14" ht="19">
-      <c r="A155" s="41">
+    <row r="155" spans="1:14" ht="17.399999999999999">
+      <c r="A155" s="35">
         <v>240120</v>
       </c>
       <c r="B155" s="3">
@@ -4537,8 +4537,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="156" spans="1:14" ht="19">
-      <c r="A156" s="41">
+    <row r="156" spans="1:14" ht="17.399999999999999">
+      <c r="A156" s="35">
         <v>240121</v>
       </c>
       <c r="B156" s="3">
@@ -4557,8 +4557,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="157" spans="1:14" ht="19">
-      <c r="A157" s="41">
+    <row r="157" spans="1:14" ht="17.399999999999999">
+      <c r="A157" s="35">
         <v>240122</v>
       </c>
       <c r="B157" s="3">
@@ -4584,8 +4584,8 @@
       <c r="M157" s="1"/>
       <c r="N157" s="1"/>
     </row>
-    <row r="158" spans="1:14" ht="19">
-      <c r="A158" s="41">
+    <row r="158" spans="1:14" ht="17.399999999999999">
+      <c r="A158" s="35">
         <v>240123</v>
       </c>
       <c r="B158" s="3">
@@ -4611,8 +4611,8 @@
       <c r="M158" s="1"/>
       <c r="N158" s="1"/>
     </row>
-    <row r="159" spans="1:14" ht="19">
-      <c r="A159" s="41">
+    <row r="159" spans="1:14" ht="17.399999999999999">
+      <c r="A159" s="35">
         <v>240124</v>
       </c>
       <c r="B159" s="3">
@@ -4638,8 +4638,8 @@
       <c r="M159" s="1"/>
       <c r="N159" s="1"/>
     </row>
-    <row r="160" spans="1:14" ht="19">
-      <c r="A160" s="41">
+    <row r="160" spans="1:14" ht="17.399999999999999">
+      <c r="A160" s="35">
         <v>240125</v>
       </c>
       <c r="B160" s="3">
@@ -4665,8 +4665,8 @@
       <c r="M160" s="1"/>
       <c r="N160" s="1"/>
     </row>
-    <row r="161" spans="1:6" ht="19">
-      <c r="A161" s="41">
+    <row r="161" spans="1:6" ht="17.399999999999999">
+      <c r="A161" s="35">
         <v>240126</v>
       </c>
       <c r="B161" s="3">
@@ -4685,8 +4685,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="19">
-      <c r="A162" s="41">
+    <row r="162" spans="1:6" ht="17.399999999999999">
+      <c r="A162" s="35">
         <v>240127</v>
       </c>
       <c r="B162" s="3">
@@ -4705,8 +4705,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="19">
-      <c r="A163" s="41">
+    <row r="163" spans="1:6" ht="17.399999999999999">
+      <c r="A163" s="35">
         <v>240128</v>
       </c>
       <c r="B163" s="3">
@@ -4725,8 +4725,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="19">
-      <c r="A164" s="41">
+    <row r="164" spans="1:6" ht="17.399999999999999">
+      <c r="A164" s="35">
         <v>240129</v>
       </c>
       <c r="B164" s="3">
@@ -4745,8 +4745,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="19">
-      <c r="A165" s="41">
+    <row r="165" spans="1:6" ht="17.399999999999999">
+      <c r="A165" s="35">
         <v>240130</v>
       </c>
       <c r="B165" s="3">
@@ -4765,8 +4765,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="19">
-      <c r="A166" s="41">
+    <row r="166" spans="1:6" ht="17.399999999999999">
+      <c r="A166" s="35">
         <v>240131</v>
       </c>
       <c r="B166" s="3">
@@ -4785,8 +4785,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="19">
-      <c r="A167" s="41">
+    <row r="167" spans="1:6" ht="17.399999999999999">
+      <c r="A167" s="35">
         <v>240132</v>
       </c>
       <c r="B167" s="3">
@@ -4805,8 +4805,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="19">
-      <c r="A168" s="41">
+    <row r="168" spans="1:6" ht="17.399999999999999">
+      <c r="A168" s="35">
         <v>240133</v>
       </c>
       <c r="B168" s="3">
@@ -4825,8 +4825,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="19">
-      <c r="A169" s="41">
+    <row r="169" spans="1:6" ht="17.399999999999999">
+      <c r="A169" s="35">
         <v>240134</v>
       </c>
       <c r="B169" s="3">
@@ -4845,8 +4845,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="19">
-      <c r="A170" s="41">
+    <row r="170" spans="1:6" ht="17.399999999999999">
+      <c r="A170" s="35">
         <v>240135</v>
       </c>
       <c r="B170" s="3">
@@ -4865,8 +4865,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="19">
-      <c r="A171" s="41">
+    <row r="171" spans="1:6" ht="17.399999999999999">
+      <c r="A171" s="35">
         <v>240136</v>
       </c>
       <c r="B171" s="3">
@@ -4885,8 +4885,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="19">
-      <c r="A172" s="41">
+    <row r="172" spans="1:6" ht="17.399999999999999">
+      <c r="A172" s="35">
         <v>240137</v>
       </c>
       <c r="B172" s="3">
@@ -4905,8 +4905,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="19">
-      <c r="A173" s="41">
+    <row r="173" spans="1:6" ht="17.399999999999999">
+      <c r="A173" s="35">
         <v>240138</v>
       </c>
       <c r="B173" s="3">
@@ -4925,8 +4925,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="19">
-      <c r="A174" s="41">
+    <row r="174" spans="1:6" ht="17.399999999999999">
+      <c r="A174" s="35">
         <v>240139</v>
       </c>
       <c r="B174" s="3">
@@ -4945,8 +4945,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="19">
-      <c r="A175" s="41">
+    <row r="175" spans="1:6" ht="17.399999999999999">
+      <c r="A175" s="35">
         <v>240140</v>
       </c>
       <c r="B175" s="3">
@@ -4965,8 +4965,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="19">
-      <c r="A176" s="41">
+    <row r="176" spans="1:6" ht="17.399999999999999">
+      <c r="A176" s="35">
         <v>240141</v>
       </c>
       <c r="B176" s="3">
@@ -4985,8 +4985,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="177" spans="1:14" ht="19">
-      <c r="A177" s="41">
+    <row r="177" spans="1:14" ht="17.399999999999999">
+      <c r="A177" s="35">
         <v>240142</v>
       </c>
       <c r="B177" s="3">
@@ -5005,8 +5005,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="178" spans="1:14" ht="19">
-      <c r="A178" s="41">
+    <row r="178" spans="1:14" ht="17.399999999999999">
+      <c r="A178" s="35">
         <v>240143</v>
       </c>
       <c r="B178" s="3">
@@ -5025,8 +5025,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="179" spans="1:14" ht="19">
-      <c r="A179" s="41">
+    <row r="179" spans="1:14" ht="17.399999999999999">
+      <c r="A179" s="35">
         <v>240144</v>
       </c>
       <c r="B179" s="3">
@@ -5045,8 +5045,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="180" spans="1:14" ht="19">
-      <c r="A180" s="41">
+    <row r="180" spans="1:14" ht="17.399999999999999">
+      <c r="A180" s="35">
         <v>240145</v>
       </c>
       <c r="B180" s="3">
@@ -5065,8 +5065,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="181" spans="1:14" ht="19">
-      <c r="A181" s="41">
+    <row r="181" spans="1:14" ht="17.399999999999999">
+      <c r="A181" s="35">
         <v>240146</v>
       </c>
       <c r="B181" s="3">
@@ -5085,8 +5085,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="182" spans="1:14" ht="20" thickBot="1">
-      <c r="A182" s="42">
+    <row r="182" spans="1:14" ht="18" thickBot="1">
+      <c r="A182" s="36">
         <v>240147</v>
       </c>
       <c r="B182" s="7">
@@ -5105,8 +5105,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="183" spans="1:14" ht="19">
-      <c r="A183" s="40">
+    <row r="183" spans="1:14" ht="17.399999999999999">
+      <c r="A183" s="34">
         <v>240148</v>
       </c>
       <c r="B183" s="4">
@@ -5125,8 +5125,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="184" spans="1:14" ht="19">
-      <c r="A184" s="41">
+    <row r="184" spans="1:14" ht="17.399999999999999">
+      <c r="A184" s="35">
         <v>240149</v>
       </c>
       <c r="B184" s="3">
@@ -5145,8 +5145,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="185" spans="1:14" ht="19">
-      <c r="A185" s="41">
+    <row r="185" spans="1:14" ht="17.399999999999999">
+      <c r="A185" s="35">
         <v>240150</v>
       </c>
       <c r="B185" s="3">
@@ -5165,8 +5165,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="186" spans="1:14" ht="19">
-      <c r="A186" s="41">
+    <row r="186" spans="1:14" ht="17.399999999999999">
+      <c r="A186" s="35">
         <v>240151</v>
       </c>
       <c r="B186" s="3">
@@ -5185,8 +5185,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="187" spans="1:14" ht="19">
-      <c r="A187" s="41">
+    <row r="187" spans="1:14" ht="17.399999999999999">
+      <c r="A187" s="35">
         <v>240152</v>
       </c>
       <c r="B187" s="3">
@@ -5205,8 +5205,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="188" spans="1:14" ht="19">
-      <c r="A188" s="41">
+    <row r="188" spans="1:14" ht="17.399999999999999">
+      <c r="A188" s="35">
         <v>240153</v>
       </c>
       <c r="B188" s="3">
@@ -5225,8 +5225,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="189" spans="1:14" ht="19">
-      <c r="A189" s="41">
+    <row r="189" spans="1:14" ht="17.399999999999999">
+      <c r="A189" s="35">
         <v>240154</v>
       </c>
       <c r="B189" s="3">
@@ -5245,8 +5245,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="190" spans="1:14" ht="19">
-      <c r="A190" s="41">
+    <row r="190" spans="1:14" ht="17.399999999999999">
+      <c r="A190" s="35">
         <v>240155</v>
       </c>
       <c r="B190" s="3">
@@ -5272,8 +5272,8 @@
       <c r="M190" s="1"/>
       <c r="N190" s="1"/>
     </row>
-    <row r="191" spans="1:14" ht="19">
-      <c r="A191" s="41">
+    <row r="191" spans="1:14" ht="17.399999999999999">
+      <c r="A191" s="35">
         <v>240156</v>
       </c>
       <c r="B191" s="3">
@@ -5292,8 +5292,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="192" spans="1:14" ht="19">
-      <c r="A192" s="41">
+    <row r="192" spans="1:14" ht="17.399999999999999">
+      <c r="A192" s="35">
         <v>240157</v>
       </c>
       <c r="B192" s="3">
@@ -5312,8 +5312,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="19">
-      <c r="A193" s="41">
+    <row r="193" spans="1:6" ht="17.399999999999999">
+      <c r="A193" s="35">
         <v>240158</v>
       </c>
       <c r="B193" s="3">
@@ -5332,8 +5332,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="19">
-      <c r="A194" s="41">
+    <row r="194" spans="1:6" ht="17.399999999999999">
+      <c r="A194" s="35">
         <v>240159</v>
       </c>
       <c r="B194" s="3">
@@ -5352,8 +5352,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="19">
-      <c r="A195" s="41">
+    <row r="195" spans="1:6" ht="17.399999999999999">
+      <c r="A195" s="35">
         <v>240160</v>
       </c>
       <c r="B195" s="3">
@@ -5372,8 +5372,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="19">
-      <c r="A196" s="41">
+    <row r="196" spans="1:6" ht="17.399999999999999">
+      <c r="A196" s="35">
         <v>240161</v>
       </c>
       <c r="B196" s="3">
@@ -5392,8 +5392,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="19">
-      <c r="A197" s="41">
+    <row r="197" spans="1:6" ht="17.399999999999999">
+      <c r="A197" s="35">
         <v>240162</v>
       </c>
       <c r="B197" s="3">
@@ -5412,8 +5412,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="19">
-      <c r="A198" s="41">
+    <row r="198" spans="1:6" ht="17.399999999999999">
+      <c r="A198" s="35">
         <v>240163</v>
       </c>
       <c r="B198" s="3">
@@ -5432,8 +5432,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="19">
-      <c r="A199" s="41">
+    <row r="199" spans="1:6" ht="17.399999999999999">
+      <c r="A199" s="35">
         <v>240164</v>
       </c>
       <c r="B199" s="3">
@@ -5452,8 +5452,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="19">
-      <c r="A200" s="41">
+    <row r="200" spans="1:6" ht="17.399999999999999">
+      <c r="A200" s="35">
         <v>240165</v>
       </c>
       <c r="B200" s="3">
@@ -5472,8 +5472,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="19">
-      <c r="A201" s="41">
+    <row r="201" spans="1:6" ht="17.399999999999999">
+      <c r="A201" s="35">
         <v>240166</v>
       </c>
       <c r="B201" s="3">
@@ -5492,8 +5492,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="19">
-      <c r="A202" s="41">
+    <row r="202" spans="1:6" ht="17.399999999999999">
+      <c r="A202" s="35">
         <v>240167</v>
       </c>
       <c r="B202" s="3">
@@ -5512,8 +5512,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="19">
-      <c r="A203" s="41">
+    <row r="203" spans="1:6" ht="17.399999999999999">
+      <c r="A203" s="35">
         <v>240168</v>
       </c>
       <c r="B203" s="3">
@@ -5532,8 +5532,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="19">
-      <c r="A204" s="41">
+    <row r="204" spans="1:6" ht="17.399999999999999">
+      <c r="A204" s="35">
         <v>240169</v>
       </c>
       <c r="B204" s="3">
@@ -5552,8 +5552,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="19">
-      <c r="A205" s="41">
+    <row r="205" spans="1:6" ht="17.399999999999999">
+      <c r="A205" s="35">
         <v>240170</v>
       </c>
       <c r="B205" s="3">
@@ -5572,8 +5572,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="19">
-      <c r="A206" s="41">
+    <row r="206" spans="1:6" ht="17.399999999999999">
+      <c r="A206" s="35">
         <v>240171</v>
       </c>
       <c r="B206" s="3">
@@ -5592,8 +5592,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="19">
-      <c r="A207" s="41">
+    <row r="207" spans="1:6" ht="17.399999999999999">
+      <c r="A207" s="35">
         <v>240172</v>
       </c>
       <c r="B207" s="3">
@@ -5612,8 +5612,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="19">
-      <c r="A208" s="41">
+    <row r="208" spans="1:6" ht="17.399999999999999">
+      <c r="A208" s="35">
         <v>240173</v>
       </c>
       <c r="B208" s="3">
@@ -5632,8 +5632,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="209" spans="1:14" ht="19">
-      <c r="A209" s="41">
+    <row r="209" spans="1:14" ht="17.399999999999999">
+      <c r="A209" s="35">
         <v>240174</v>
       </c>
       <c r="B209" s="3">
@@ -5652,8 +5652,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="210" spans="1:14" ht="19">
-      <c r="A210" s="41">
+    <row r="210" spans="1:14" ht="17.399999999999999">
+      <c r="A210" s="35">
         <v>240175</v>
       </c>
       <c r="B210" s="3">
@@ -5672,8 +5672,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="211" spans="1:14" ht="19">
-      <c r="A211" s="41">
+    <row r="211" spans="1:14" ht="17.399999999999999">
+      <c r="A211" s="35">
         <v>240176</v>
       </c>
       <c r="B211" s="3">
@@ -5692,8 +5692,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="212" spans="1:14" ht="19">
-      <c r="A212" s="41">
+    <row r="212" spans="1:14" ht="17.399999999999999">
+      <c r="A212" s="35">
         <v>240177</v>
       </c>
       <c r="B212" s="3">
@@ -5712,8 +5712,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="213" spans="1:14" ht="20" thickBot="1">
-      <c r="A213" s="42">
+    <row r="213" spans="1:14" ht="18" thickBot="1">
+      <c r="A213" s="36">
         <v>240178</v>
       </c>
       <c r="B213" s="7">
@@ -5732,8 +5732,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="214" spans="1:14" ht="19">
-      <c r="A214" s="40">
+    <row r="214" spans="1:14" ht="17.399999999999999">
+      <c r="A214" s="34">
         <v>240179</v>
       </c>
       <c r="B214" s="4">
@@ -5752,8 +5752,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="215" spans="1:14" ht="19">
-      <c r="A215" s="41">
+    <row r="215" spans="1:14" ht="17.399999999999999">
+      <c r="A215" s="35">
         <v>240180</v>
       </c>
       <c r="B215" s="3">
@@ -5772,8 +5772,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="216" spans="1:14" ht="19">
-      <c r="A216" s="41">
+    <row r="216" spans="1:14" ht="17.399999999999999">
+      <c r="A216" s="35">
         <v>240181</v>
       </c>
       <c r="B216" s="3">
@@ -5792,8 +5792,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="217" spans="1:14" ht="19">
-      <c r="A217" s="41">
+    <row r="217" spans="1:14" ht="17.399999999999999">
+      <c r="A217" s="35">
         <v>240182</v>
       </c>
       <c r="B217" s="3">
@@ -5812,8 +5812,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="218" spans="1:14" ht="19">
-      <c r="A218" s="41">
+    <row r="218" spans="1:14" ht="17.399999999999999">
+      <c r="A218" s="35">
         <v>240183</v>
       </c>
       <c r="B218" s="3">
@@ -5839,8 +5839,8 @@
       <c r="M218" s="1"/>
       <c r="N218" s="1"/>
     </row>
-    <row r="219" spans="1:14" ht="19">
-      <c r="A219" s="41">
+    <row r="219" spans="1:14" ht="17.399999999999999">
+      <c r="A219" s="35">
         <v>240184</v>
       </c>
       <c r="B219" s="3">
@@ -5866,8 +5866,8 @@
       <c r="M219" s="1"/>
       <c r="N219" s="1"/>
     </row>
-    <row r="220" spans="1:14" ht="19">
-      <c r="A220" s="41">
+    <row r="220" spans="1:14" ht="17.399999999999999">
+      <c r="A220" s="35">
         <v>240185</v>
       </c>
       <c r="B220" s="3">
@@ -5886,8 +5886,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="221" spans="1:14" ht="19">
-      <c r="A221" s="41">
+    <row r="221" spans="1:14" ht="17.399999999999999">
+      <c r="A221" s="35">
         <v>240186</v>
       </c>
       <c r="B221" s="3">
@@ -5906,8 +5906,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="222" spans="1:14" ht="19">
-      <c r="A222" s="41">
+    <row r="222" spans="1:14" ht="17.399999999999999">
+      <c r="A222" s="35">
         <v>240187</v>
       </c>
       <c r="B222" s="3">
@@ -5926,8 +5926,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="223" spans="1:14" ht="19">
-      <c r="A223" s="41">
+    <row r="223" spans="1:14" ht="17.399999999999999">
+      <c r="A223" s="35">
         <v>240188</v>
       </c>
       <c r="B223" s="3">
@@ -5946,8 +5946,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="224" spans="1:14" ht="19">
-      <c r="A224" s="41">
+    <row r="224" spans="1:14" ht="17.399999999999999">
+      <c r="A224" s="35">
         <v>240189</v>
       </c>
       <c r="B224" s="3">
@@ -5966,8 +5966,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="19">
-      <c r="A225" s="41">
+    <row r="225" spans="1:6" ht="17.399999999999999">
+      <c r="A225" s="35">
         <v>240190</v>
       </c>
       <c r="B225" s="3">
@@ -5986,8 +5986,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="19">
-      <c r="A226" s="41">
+    <row r="226" spans="1:6" ht="17.399999999999999">
+      <c r="A226" s="35">
         <v>240191</v>
       </c>
       <c r="B226" s="3">
@@ -6006,8 +6006,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="19">
-      <c r="A227" s="41">
+    <row r="227" spans="1:6" ht="17.399999999999999">
+      <c r="A227" s="35">
         <v>240192</v>
       </c>
       <c r="B227" s="3">
@@ -6026,8 +6026,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="19">
-      <c r="A228" s="41">
+    <row r="228" spans="1:6" ht="17.399999999999999">
+      <c r="A228" s="35">
         <v>240193</v>
       </c>
       <c r="B228" s="3">
@@ -6046,8 +6046,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="19">
-      <c r="A229" s="41">
+    <row r="229" spans="1:6" ht="17.399999999999999">
+      <c r="A229" s="35">
         <v>240194</v>
       </c>
       <c r="B229" s="3">
@@ -6066,8 +6066,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="19">
-      <c r="A230" s="41">
+    <row r="230" spans="1:6" ht="17.399999999999999">
+      <c r="A230" s="35">
         <v>240195</v>
       </c>
       <c r="B230" s="3">
@@ -6086,8 +6086,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="19">
-      <c r="A231" s="41">
+    <row r="231" spans="1:6" ht="17.399999999999999">
+      <c r="A231" s="35">
         <v>240196</v>
       </c>
       <c r="B231" s="3">
@@ -6106,8 +6106,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="19">
-      <c r="A232" s="41">
+    <row r="232" spans="1:6" ht="17.399999999999999">
+      <c r="A232" s="35">
         <v>240197</v>
       </c>
       <c r="B232" s="3">
@@ -6126,8 +6126,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="19">
-      <c r="A233" s="41">
+    <row r="233" spans="1:6" ht="17.399999999999999">
+      <c r="A233" s="35">
         <v>240198</v>
       </c>
       <c r="B233" s="3">
@@ -6146,8 +6146,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="19">
-      <c r="A234" s="41">
+    <row r="234" spans="1:6" ht="17.399999999999999">
+      <c r="A234" s="35">
         <v>240199</v>
       </c>
       <c r="B234" s="3">
@@ -6166,8 +6166,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="19">
-      <c r="A235" s="41">
+    <row r="235" spans="1:6" ht="17.399999999999999">
+      <c r="A235" s="35">
         <v>240200</v>
       </c>
       <c r="B235" s="3">
@@ -6186,8 +6186,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="19">
-      <c r="A236" s="41">
+    <row r="236" spans="1:6" ht="17.399999999999999">
+      <c r="A236" s="35">
         <v>240201</v>
       </c>
       <c r="B236" s="3">
@@ -6206,8 +6206,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="19">
-      <c r="A237" s="41">
+    <row r="237" spans="1:6" ht="17.399999999999999">
+      <c r="A237" s="35">
         <v>240202</v>
       </c>
       <c r="B237" s="3">
@@ -6226,8 +6226,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="19">
-      <c r="A238" s="41">
+    <row r="238" spans="1:6" ht="17.399999999999999">
+      <c r="A238" s="35">
         <v>240203</v>
       </c>
       <c r="B238" s="3">
@@ -6246,8 +6246,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="19">
-      <c r="A239" s="41">
+    <row r="239" spans="1:6" ht="17.399999999999999">
+      <c r="A239" s="35">
         <v>240204</v>
       </c>
       <c r="B239" s="3">
@@ -6266,8 +6266,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="19">
-      <c r="A240" s="41">
+    <row r="240" spans="1:6" ht="17.399999999999999">
+      <c r="A240" s="35">
         <v>240205</v>
       </c>
       <c r="B240" s="3">
@@ -6286,8 +6286,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="19">
-      <c r="A241" s="41">
+    <row r="241" spans="1:6" ht="17.399999999999999">
+      <c r="A241" s="35">
         <v>240206</v>
       </c>
       <c r="B241" s="3">
@@ -6306,8 +6306,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="19">
-      <c r="A242" s="41">
+    <row r="242" spans="1:6" ht="17.399999999999999">
+      <c r="A242" s="35">
         <v>240207</v>
       </c>
       <c r="B242" s="3">
@@ -6326,8 +6326,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="19">
-      <c r="A243" s="41">
+    <row r="243" spans="1:6" ht="17.399999999999999">
+      <c r="A243" s="35">
         <v>240208</v>
       </c>
       <c r="B243" s="3">
@@ -6346,8 +6346,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="20" thickBot="1">
-      <c r="A244" s="42">
+    <row r="244" spans="1:6" ht="18" thickBot="1">
+      <c r="A244" s="36">
         <v>240209</v>
       </c>
       <c r="B244" s="7">
@@ -6366,8 +6366,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="245" spans="1:6" ht="19">
-      <c r="A245" s="40">
+    <row r="245" spans="1:6" ht="17.399999999999999">
+      <c r="A245" s="34">
         <v>240210</v>
       </c>
       <c r="B245" s="4">
@@ -6386,8 +6386,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="19">
-      <c r="A246" s="41">
+    <row r="246" spans="1:6" ht="17.399999999999999">
+      <c r="A246" s="35">
         <v>240211</v>
       </c>
       <c r="B246" s="3">
@@ -6406,8 +6406,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="19">
-      <c r="A247" s="41">
+    <row r="247" spans="1:6" ht="17.399999999999999">
+      <c r="A247" s="35">
         <v>240212</v>
       </c>
       <c r="B247" s="3">
@@ -6426,8 +6426,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="248" spans="1:6" ht="19">
-      <c r="A248" s="41">
+    <row r="248" spans="1:6" ht="17.399999999999999">
+      <c r="A248" s="35">
         <v>240213</v>
       </c>
       <c r="B248" s="3">
@@ -6446,8 +6446,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="19">
-      <c r="A249" s="41">
+    <row r="249" spans="1:6" ht="17.399999999999999">
+      <c r="A249" s="35">
         <v>240214</v>
       </c>
       <c r="B249" s="3">
@@ -6466,8 +6466,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="250" spans="1:6" ht="19">
-      <c r="A250" s="41">
+    <row r="250" spans="1:6" ht="17.399999999999999">
+      <c r="A250" s="35">
         <v>240215</v>
       </c>
       <c r="B250" s="3">
@@ -6486,8 +6486,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="251" spans="1:6" ht="19">
-      <c r="A251" s="41">
+    <row r="251" spans="1:6" ht="17.399999999999999">
+      <c r="A251" s="35">
         <v>240216</v>
       </c>
       <c r="B251" s="3">
@@ -6506,8 +6506,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="252" spans="1:6" ht="19">
-      <c r="A252" s="41">
+    <row r="252" spans="1:6" ht="17.399999999999999">
+      <c r="A252" s="35">
         <v>240217</v>
       </c>
       <c r="B252" s="3">
@@ -6526,8 +6526,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="19">
-      <c r="A253" s="41">
+    <row r="253" spans="1:6" ht="17.399999999999999">
+      <c r="A253" s="35">
         <v>240218</v>
       </c>
       <c r="B253" s="3">
@@ -6546,8 +6546,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="254" spans="1:6" ht="19">
-      <c r="A254" s="41">
+    <row r="254" spans="1:6" ht="17.399999999999999">
+      <c r="A254" s="35">
         <v>240219</v>
       </c>
       <c r="B254" s="3">
@@ -6566,8 +6566,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="19">
-      <c r="A255" s="41">
+    <row r="255" spans="1:6" ht="17.399999999999999">
+      <c r="A255" s="35">
         <v>240220</v>
       </c>
       <c r="B255" s="3">
@@ -6586,8 +6586,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="256" spans="1:6" ht="19">
-      <c r="A256" s="41">
+    <row r="256" spans="1:6" ht="17.399999999999999">
+      <c r="A256" s="35">
         <v>240221</v>
       </c>
       <c r="B256" s="3">
@@ -6606,8 +6606,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="19">
-      <c r="A257" s="41">
+    <row r="257" spans="1:6" ht="17.399999999999999">
+      <c r="A257" s="35">
         <v>240222</v>
       </c>
       <c r="B257" s="3">
@@ -6626,8 +6626,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="19">
-      <c r="A258" s="41">
+    <row r="258" spans="1:6" ht="17.399999999999999">
+      <c r="A258" s="35">
         <v>240223</v>
       </c>
       <c r="B258" s="3">
@@ -6646,8 +6646,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="19">
-      <c r="A259" s="41">
+    <row r="259" spans="1:6" ht="17.399999999999999">
+      <c r="A259" s="35">
         <v>240224</v>
       </c>
       <c r="B259" s="3">
@@ -6666,8 +6666,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="19">
-      <c r="A260" s="41">
+    <row r="260" spans="1:6" ht="17.399999999999999">
+      <c r="A260" s="35">
         <v>240225</v>
       </c>
       <c r="B260" s="3">
@@ -6686,8 +6686,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="19">
-      <c r="A261" s="41">
+    <row r="261" spans="1:6" ht="17.399999999999999">
+      <c r="A261" s="35">
         <v>240226</v>
       </c>
       <c r="B261" s="3">
@@ -6706,8 +6706,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="19">
-      <c r="A262" s="41">
+    <row r="262" spans="1:6" ht="17.399999999999999">
+      <c r="A262" s="35">
         <v>240227</v>
       </c>
       <c r="B262" s="3">
@@ -6726,8 +6726,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="19">
-      <c r="A263" s="41">
+    <row r="263" spans="1:6" ht="17.399999999999999">
+      <c r="A263" s="35">
         <v>240228</v>
       </c>
       <c r="B263" s="3">
@@ -6746,8 +6746,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="19">
-      <c r="A264" s="41">
+    <row r="264" spans="1:6" ht="17.399999999999999">
+      <c r="A264" s="35">
         <v>240229</v>
       </c>
       <c r="B264" s="3">
@@ -6766,8 +6766,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="19">
-      <c r="A265" s="41">
+    <row r="265" spans="1:6" ht="17.399999999999999">
+      <c r="A265" s="35">
         <v>240230</v>
       </c>
       <c r="B265" s="3">
@@ -6786,8 +6786,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="19">
-      <c r="A266" s="41">
+    <row r="266" spans="1:6" ht="17.399999999999999">
+      <c r="A266" s="35">
         <v>240231</v>
       </c>
       <c r="B266" s="3">
@@ -6806,8 +6806,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="19">
-      <c r="A267" s="41">
+    <row r="267" spans="1:6" ht="17.399999999999999">
+      <c r="A267" s="35">
         <v>240232</v>
       </c>
       <c r="B267" s="3">
@@ -6826,8 +6826,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="19">
-      <c r="A268" s="41">
+    <row r="268" spans="1:6" ht="17.399999999999999">
+      <c r="A268" s="35">
         <v>240233</v>
       </c>
       <c r="B268" s="3">
@@ -6846,8 +6846,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="19">
-      <c r="A269" s="41">
+    <row r="269" spans="1:6" ht="17.399999999999999">
+      <c r="A269" s="35">
         <v>240234</v>
       </c>
       <c r="B269" s="3">
@@ -6866,8 +6866,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="19">
-      <c r="A270" s="41">
+    <row r="270" spans="1:6" ht="17.399999999999999">
+      <c r="A270" s="35">
         <v>240235</v>
       </c>
       <c r="B270" s="3">
@@ -6886,8 +6886,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="19">
-      <c r="A271" s="41">
+    <row r="271" spans="1:6" ht="17.399999999999999">
+      <c r="A271" s="35">
         <v>240236</v>
       </c>
       <c r="B271" s="3">
@@ -6906,8 +6906,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="19">
-      <c r="A272" s="41">
+    <row r="272" spans="1:6" ht="17.399999999999999">
+      <c r="A272" s="35">
         <v>240237</v>
       </c>
       <c r="B272" s="3">
@@ -6926,8 +6926,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="273" spans="1:14" ht="19">
-      <c r="A273" s="41">
+    <row r="273" spans="1:14" ht="17.399999999999999">
+      <c r="A273" s="35">
         <v>240238</v>
       </c>
       <c r="B273" s="3">
@@ -6946,8 +6946,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="274" spans="1:14" ht="20" thickBot="1">
-      <c r="A274" s="42">
+    <row r="274" spans="1:14" ht="18" thickBot="1">
+      <c r="A274" s="36">
         <v>240239</v>
       </c>
       <c r="B274" s="7">
@@ -6966,8 +6966,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="275" spans="1:14" ht="19">
-      <c r="A275" s="40">
+    <row r="275" spans="1:14" ht="17.399999999999999">
+      <c r="A275" s="34">
         <v>240240</v>
       </c>
       <c r="B275" s="4">
@@ -6986,8 +6986,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="276" spans="1:14" ht="19">
-      <c r="A276" s="41">
+    <row r="276" spans="1:14" ht="17.399999999999999">
+      <c r="A276" s="35">
         <v>240241</v>
       </c>
       <c r="B276" s="3">
@@ -7006,8 +7006,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="277" spans="1:14" ht="19">
-      <c r="A277" s="41">
+    <row r="277" spans="1:14" ht="17.399999999999999">
+      <c r="A277" s="35">
         <v>240242</v>
       </c>
       <c r="B277" s="3">
@@ -7026,8 +7026,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="278" spans="1:14" ht="19">
-      <c r="A278" s="41">
+    <row r="278" spans="1:14" ht="17.399999999999999">
+      <c r="A278" s="35">
         <v>240243</v>
       </c>
       <c r="B278" s="3">
@@ -7046,8 +7046,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="279" spans="1:14" ht="19">
-      <c r="A279" s="41">
+    <row r="279" spans="1:14" ht="17.399999999999999">
+      <c r="A279" s="35">
         <v>240244</v>
       </c>
       <c r="B279" s="3">
@@ -7066,8 +7066,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="280" spans="1:14" ht="19">
-      <c r="A280" s="41">
+    <row r="280" spans="1:14" ht="17.399999999999999">
+      <c r="A280" s="35">
         <v>240245</v>
       </c>
       <c r="B280" s="3">
@@ -7093,8 +7093,8 @@
       <c r="M280" s="1"/>
       <c r="N280" s="1"/>
     </row>
-    <row r="281" spans="1:14" ht="19">
-      <c r="A281" s="41">
+    <row r="281" spans="1:14" ht="17.399999999999999">
+      <c r="A281" s="35">
         <v>240246</v>
       </c>
       <c r="B281" s="3">
@@ -7120,8 +7120,8 @@
       <c r="M281" s="1"/>
       <c r="N281" s="1"/>
     </row>
-    <row r="282" spans="1:14" ht="19">
-      <c r="A282" s="41">
+    <row r="282" spans="1:14" ht="17.399999999999999">
+      <c r="A282" s="35">
         <v>240247</v>
       </c>
       <c r="B282" s="3">
@@ -7147,8 +7147,8 @@
       <c r="M282" s="1"/>
       <c r="N282" s="1"/>
     </row>
-    <row r="283" spans="1:14" ht="19">
-      <c r="A283" s="41">
+    <row r="283" spans="1:14" ht="17.399999999999999">
+      <c r="A283" s="35">
         <v>240248</v>
       </c>
       <c r="B283" s="3">
@@ -7174,8 +7174,8 @@
       <c r="M283" s="1"/>
       <c r="N283" s="1"/>
     </row>
-    <row r="284" spans="1:14" ht="19">
-      <c r="A284" s="41">
+    <row r="284" spans="1:14" ht="17.399999999999999">
+      <c r="A284" s="35">
         <v>240249</v>
       </c>
       <c r="B284" s="3">
@@ -7201,8 +7201,8 @@
       <c r="M284" s="1"/>
       <c r="N284" s="1"/>
     </row>
-    <row r="285" spans="1:14" ht="19">
-      <c r="A285" s="41">
+    <row r="285" spans="1:14" ht="17.399999999999999">
+      <c r="A285" s="35">
         <v>240250</v>
       </c>
       <c r="B285" s="3">
@@ -7221,8 +7221,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="286" spans="1:14" ht="19">
-      <c r="A286" s="41">
+    <row r="286" spans="1:14" ht="17.399999999999999">
+      <c r="A286" s="35">
         <v>240251</v>
       </c>
       <c r="B286" s="3">
@@ -7241,8 +7241,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="287" spans="1:14" ht="19">
-      <c r="A287" s="41">
+    <row r="287" spans="1:14" ht="17.399999999999999">
+      <c r="A287" s="35">
         <v>240252</v>
       </c>
       <c r="B287" s="3">
@@ -7261,8 +7261,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="288" spans="1:14" ht="19">
-      <c r="A288" s="41">
+    <row r="288" spans="1:14" ht="17.399999999999999">
+      <c r="A288" s="35">
         <v>240253</v>
       </c>
       <c r="B288" s="3">
@@ -7281,8 +7281,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="19">
-      <c r="A289" s="41">
+    <row r="289" spans="1:6" ht="17.399999999999999">
+      <c r="A289" s="35">
         <v>240254</v>
       </c>
       <c r="B289" s="3">
@@ -7301,8 +7301,8 @@
         <v>29.39</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="19">
-      <c r="A290" s="41">
+    <row r="290" spans="1:6" ht="17.399999999999999">
+      <c r="A290" s="35">
         <v>240255</v>
       </c>
       <c r="B290" s="3">
@@ -7321,8 +7321,8 @@
         <v>29.39</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="19">
-      <c r="A291" s="41">
+    <row r="291" spans="1:6" ht="17.399999999999999">
+      <c r="A291" s="35">
         <v>240256</v>
       </c>
       <c r="B291" s="3">
@@ -7341,8 +7341,8 @@
         <v>29.39</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="19">
-      <c r="A292" s="41">
+    <row r="292" spans="1:6" ht="17.399999999999999">
+      <c r="A292" s="35">
         <v>240257</v>
       </c>
       <c r="B292" s="3">
@@ -7361,8 +7361,8 @@
         <v>29.39</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="19">
-      <c r="A293" s="41">
+    <row r="293" spans="1:6" ht="17.399999999999999">
+      <c r="A293" s="35">
         <v>240258</v>
       </c>
       <c r="B293" s="3">
@@ -7381,8 +7381,8 @@
         <v>29.39</v>
       </c>
     </row>
-    <row r="294" spans="1:6" ht="19">
-      <c r="A294" s="41">
+    <row r="294" spans="1:6" ht="17.399999999999999">
+      <c r="A294" s="35">
         <v>240259</v>
       </c>
       <c r="B294" s="3">
@@ -7401,8 +7401,8 @@
         <v>29.39</v>
       </c>
     </row>
-    <row r="295" spans="1:6" ht="19">
-      <c r="A295" s="41">
+    <row r="295" spans="1:6" ht="17.399999999999999">
+      <c r="A295" s="35">
         <v>240260</v>
       </c>
       <c r="B295" s="3">
@@ -7421,8 +7421,8 @@
         <v>29.39</v>
       </c>
     </row>
-    <row r="296" spans="1:6" ht="19">
-      <c r="A296" s="41">
+    <row r="296" spans="1:6" ht="17.399999999999999">
+      <c r="A296" s="35">
         <v>240261</v>
       </c>
       <c r="B296" s="3">
@@ -7441,8 +7441,8 @@
         <v>29.39</v>
       </c>
     </row>
-    <row r="297" spans="1:6" ht="19">
-      <c r="A297" s="41">
+    <row r="297" spans="1:6" ht="17.399999999999999">
+      <c r="A297" s="35">
         <v>240262</v>
       </c>
       <c r="B297" s="3">
@@ -7461,8 +7461,8 @@
         <v>29.39</v>
       </c>
     </row>
-    <row r="298" spans="1:6" ht="19">
-      <c r="A298" s="41">
+    <row r="298" spans="1:6" ht="17.399999999999999">
+      <c r="A298" s="35">
         <v>240263</v>
       </c>
       <c r="B298" s="3">
@@ -7481,8 +7481,8 @@
         <v>29.39</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="19">
-      <c r="A299" s="41">
+    <row r="299" spans="1:6" ht="17.399999999999999">
+      <c r="A299" s="35">
         <v>240264</v>
       </c>
       <c r="B299" s="3">
@@ -7501,8 +7501,8 @@
         <v>29.39</v>
       </c>
     </row>
-    <row r="300" spans="1:6" ht="19">
-      <c r="A300" s="41">
+    <row r="300" spans="1:6" ht="17.399999999999999">
+      <c r="A300" s="35">
         <v>240265</v>
       </c>
       <c r="B300" s="3">
@@ -7521,8 +7521,8 @@
         <v>29.39</v>
       </c>
     </row>
-    <row r="301" spans="1:6" ht="19">
-      <c r="A301" s="41">
+    <row r="301" spans="1:6" ht="17.399999999999999">
+      <c r="A301" s="35">
         <v>240266</v>
       </c>
       <c r="B301" s="3">
@@ -7541,8 +7541,8 @@
         <v>29.39</v>
       </c>
     </row>
-    <row r="302" spans="1:6" ht="19">
-      <c r="A302" s="41">
+    <row r="302" spans="1:6" ht="17.399999999999999">
+      <c r="A302" s="35">
         <v>240267</v>
       </c>
       <c r="B302" s="3">
@@ -7561,8 +7561,8 @@
         <v>29.39</v>
       </c>
     </row>
-    <row r="303" spans="1:6" ht="19">
-      <c r="A303" s="41">
+    <row r="303" spans="1:6" ht="17.399999999999999">
+      <c r="A303" s="35">
         <v>240268</v>
       </c>
       <c r="B303" s="3">
@@ -7581,8 +7581,8 @@
         <v>29.39</v>
       </c>
     </row>
-    <row r="304" spans="1:6" ht="19">
-      <c r="A304" s="41">
+    <row r="304" spans="1:6" ht="17.399999999999999">
+      <c r="A304" s="35">
         <v>240269</v>
       </c>
       <c r="B304" s="3">
@@ -7601,8 +7601,8 @@
         <v>29.39</v>
       </c>
     </row>
-    <row r="305" spans="1:14" ht="20" thickBot="1">
-      <c r="A305" s="42">
+    <row r="305" spans="1:14" ht="18" thickBot="1">
+      <c r="A305" s="36">
         <v>240270</v>
       </c>
       <c r="B305" s="7">
@@ -7621,8 +7621,8 @@
         <v>29.39</v>
       </c>
     </row>
-    <row r="306" spans="1:14" ht="19">
-      <c r="A306" s="40">
+    <row r="306" spans="1:14" ht="17.399999999999999">
+      <c r="A306" s="34">
         <v>240271</v>
       </c>
       <c r="B306" s="4">
@@ -7641,8 +7641,8 @@
         <v>29.39</v>
       </c>
     </row>
-    <row r="307" spans="1:14" ht="19">
-      <c r="A307" s="41">
+    <row r="307" spans="1:14" ht="17.399999999999999">
+      <c r="A307" s="35">
         <v>240272</v>
       </c>
       <c r="B307" s="3">
@@ -7661,8 +7661,8 @@
         <v>29.39</v>
       </c>
     </row>
-    <row r="308" spans="1:14" ht="19">
-      <c r="A308" s="41">
+    <row r="308" spans="1:14" ht="17.399999999999999">
+      <c r="A308" s="35">
         <v>240273</v>
       </c>
       <c r="B308" s="3">
@@ -7681,8 +7681,8 @@
         <v>29.39</v>
       </c>
     </row>
-    <row r="309" spans="1:14" ht="19">
-      <c r="A309" s="41">
+    <row r="309" spans="1:14" ht="17.399999999999999">
+      <c r="A309" s="35">
         <v>240274</v>
       </c>
       <c r="B309" s="3">
@@ -7708,8 +7708,8 @@
       <c r="M309" s="1"/>
       <c r="N309" s="1"/>
     </row>
-    <row r="310" spans="1:14" ht="19">
-      <c r="A310" s="41">
+    <row r="310" spans="1:14" ht="17.399999999999999">
+      <c r="A310" s="35">
         <v>240275</v>
       </c>
       <c r="B310" s="3">
@@ -7735,8 +7735,8 @@
       <c r="M310" s="1"/>
       <c r="N310" s="1"/>
     </row>
-    <row r="311" spans="1:14" ht="19">
-      <c r="A311" s="41">
+    <row r="311" spans="1:14" ht="17.399999999999999">
+      <c r="A311" s="35">
         <v>240276</v>
       </c>
       <c r="B311" s="3">
@@ -7762,8 +7762,8 @@
       <c r="M311" s="1"/>
       <c r="N311" s="1"/>
     </row>
-    <row r="312" spans="1:14" ht="19">
-      <c r="A312" s="41">
+    <row r="312" spans="1:14" ht="17.399999999999999">
+      <c r="A312" s="35">
         <v>240277</v>
       </c>
       <c r="B312" s="3">
@@ -7789,8 +7789,8 @@
       <c r="M312" s="1"/>
       <c r="N312" s="1"/>
     </row>
-    <row r="313" spans="1:14" ht="19">
-      <c r="A313" s="41">
+    <row r="313" spans="1:14" ht="17.399999999999999">
+      <c r="A313" s="35">
         <v>240278</v>
       </c>
       <c r="B313" s="3">
@@ -7816,8 +7816,8 @@
       <c r="M313" s="1"/>
       <c r="N313" s="1"/>
     </row>
-    <row r="314" spans="1:14" ht="19">
-      <c r="A314" s="41">
+    <row r="314" spans="1:14" ht="17.399999999999999">
+      <c r="A314" s="35">
         <v>240279</v>
       </c>
       <c r="B314" s="3">
@@ -7836,8 +7836,8 @@
         <v>29.39</v>
       </c>
     </row>
-    <row r="315" spans="1:14" ht="19">
-      <c r="A315" s="41">
+    <row r="315" spans="1:14" ht="17.399999999999999">
+      <c r="A315" s="35">
         <v>240280</v>
       </c>
       <c r="B315" s="3">
@@ -7856,8 +7856,8 @@
         <v>29.39</v>
       </c>
     </row>
-    <row r="316" spans="1:14" ht="19">
-      <c r="A316" s="41">
+    <row r="316" spans="1:14" ht="17.399999999999999">
+      <c r="A316" s="35">
         <v>240281</v>
       </c>
       <c r="B316" s="3">
@@ -7876,8 +7876,8 @@
         <v>29.39</v>
       </c>
     </row>
-    <row r="317" spans="1:14" ht="19">
-      <c r="A317" s="41">
+    <row r="317" spans="1:14" ht="17.399999999999999">
+      <c r="A317" s="35">
         <v>240282</v>
       </c>
       <c r="B317" s="3">
@@ -7896,8 +7896,8 @@
         <v>29.39</v>
       </c>
     </row>
-    <row r="318" spans="1:14" ht="19">
-      <c r="A318" s="41">
+    <row r="318" spans="1:14" ht="17.399999999999999">
+      <c r="A318" s="35">
         <v>240283</v>
       </c>
       <c r="B318" s="3">
@@ -7916,8 +7916,8 @@
         <v>29.39</v>
       </c>
     </row>
-    <row r="319" spans="1:14" ht="19">
-      <c r="A319" s="41">
+    <row r="319" spans="1:14" ht="17.399999999999999">
+      <c r="A319" s="35">
         <v>240284</v>
       </c>
       <c r="B319" s="3">
@@ -7936,8 +7936,8 @@
         <v>29.39</v>
       </c>
     </row>
-    <row r="320" spans="1:14" ht="19">
-      <c r="A320" s="41">
+    <row r="320" spans="1:14" ht="17.399999999999999">
+      <c r="A320" s="35">
         <v>240285</v>
       </c>
       <c r="B320" s="3">
@@ -7956,8 +7956,8 @@
         <v>29.39</v>
       </c>
     </row>
-    <row r="321" spans="1:6" ht="19">
-      <c r="A321" s="41">
+    <row r="321" spans="1:6" ht="17.399999999999999">
+      <c r="A321" s="35">
         <v>240286</v>
       </c>
       <c r="B321" s="3">
@@ -7976,8 +7976,8 @@
         <v>29.39</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="19">
-      <c r="A322" s="41">
+    <row r="322" spans="1:6" ht="17.399999999999999">
+      <c r="A322" s="35">
         <v>240287</v>
       </c>
       <c r="B322" s="3">
@@ -7996,8 +7996,8 @@
         <v>29.39</v>
       </c>
     </row>
-    <row r="323" spans="1:6" ht="19">
-      <c r="A323" s="41">
+    <row r="323" spans="1:6" ht="17.399999999999999">
+      <c r="A323" s="35">
         <v>240288</v>
       </c>
       <c r="B323" s="3">
@@ -8016,8 +8016,8 @@
         <v>29.39</v>
       </c>
     </row>
-    <row r="324" spans="1:6" ht="19">
-      <c r="A324" s="41">
+    <row r="324" spans="1:6" ht="17.399999999999999">
+      <c r="A324" s="35">
         <v>240289</v>
       </c>
       <c r="B324" s="3">
@@ -8036,8 +8036,8 @@
         <v>29.39</v>
       </c>
     </row>
-    <row r="325" spans="1:6" ht="19">
-      <c r="A325" s="41">
+    <row r="325" spans="1:6" ht="17.399999999999999">
+      <c r="A325" s="35">
         <v>240290</v>
       </c>
       <c r="B325" s="3">
@@ -8056,8 +8056,8 @@
         <v>29.39</v>
       </c>
     </row>
-    <row r="326" spans="1:6" ht="19">
-      <c r="A326" s="41">
+    <row r="326" spans="1:6" ht="17.399999999999999">
+      <c r="A326" s="35">
         <v>240291</v>
       </c>
       <c r="B326" s="3">
@@ -8076,8 +8076,8 @@
         <v>29.39</v>
       </c>
     </row>
-    <row r="327" spans="1:6" ht="19">
-      <c r="A327" s="41">
+    <row r="327" spans="1:6" ht="17.399999999999999">
+      <c r="A327" s="35">
         <v>240292</v>
       </c>
       <c r="B327" s="3">
@@ -8096,8 +8096,8 @@
         <v>29.39</v>
       </c>
     </row>
-    <row r="328" spans="1:6" ht="19">
-      <c r="A328" s="41">
+    <row r="328" spans="1:6" ht="17.399999999999999">
+      <c r="A328" s="35">
         <v>240293</v>
       </c>
       <c r="B328" s="3">
@@ -8116,8 +8116,8 @@
         <v>29.39</v>
       </c>
     </row>
-    <row r="329" spans="1:6" ht="19">
-      <c r="A329" s="41">
+    <row r="329" spans="1:6" ht="17.399999999999999">
+      <c r="A329" s="35">
         <v>240294</v>
       </c>
       <c r="B329" s="3">
@@ -8136,8 +8136,8 @@
         <v>29.39</v>
       </c>
     </row>
-    <row r="330" spans="1:6" ht="19">
-      <c r="A330" s="41">
+    <row r="330" spans="1:6" ht="17.399999999999999">
+      <c r="A330" s="35">
         <v>240295</v>
       </c>
       <c r="B330" s="3">
@@ -8156,8 +8156,8 @@
         <v>29.39</v>
       </c>
     </row>
-    <row r="331" spans="1:6" ht="19">
-      <c r="A331" s="41">
+    <row r="331" spans="1:6" ht="17.399999999999999">
+      <c r="A331" s="35">
         <v>240296</v>
       </c>
       <c r="B331" s="3">
@@ -8176,8 +8176,8 @@
         <v>29.39</v>
       </c>
     </row>
-    <row r="332" spans="1:6" ht="19">
-      <c r="A332" s="41">
+    <row r="332" spans="1:6" ht="17.399999999999999">
+      <c r="A332" s="35">
         <v>240297</v>
       </c>
       <c r="B332" s="3">
@@ -8196,8 +8196,8 @@
         <v>29.39</v>
       </c>
     </row>
-    <row r="333" spans="1:6" ht="19">
-      <c r="A333" s="41">
+    <row r="333" spans="1:6" ht="17.399999999999999">
+      <c r="A333" s="35">
         <v>240298</v>
       </c>
       <c r="B333" s="3">
@@ -8216,8 +8216,8 @@
         <v>29.39</v>
       </c>
     </row>
-    <row r="334" spans="1:6" ht="19">
-      <c r="A334" s="41">
+    <row r="334" spans="1:6" ht="17.399999999999999">
+      <c r="A334" s="35">
         <v>240299</v>
       </c>
       <c r="B334" s="3">
@@ -8236,8 +8236,8 @@
         <v>29.39</v>
       </c>
     </row>
-    <row r="335" spans="1:6" ht="20" thickBot="1">
-      <c r="A335" s="42">
+    <row r="335" spans="1:6" ht="18" thickBot="1">
+      <c r="A335" s="36">
         <v>240300</v>
       </c>
       <c r="B335" s="7">
@@ -8256,8 +8256,8 @@
         <v>29.39</v>
       </c>
     </row>
-    <row r="336" spans="1:6" ht="19">
-      <c r="A336" s="40">
+    <row r="336" spans="1:6" ht="17.399999999999999">
+      <c r="A336" s="34">
         <v>240301</v>
       </c>
       <c r="B336" s="4">
@@ -8276,8 +8276,8 @@
         <v>29.39</v>
       </c>
     </row>
-    <row r="337" spans="1:14" ht="19">
-      <c r="A337" s="41">
+    <row r="337" spans="1:14" ht="17.399999999999999">
+      <c r="A337" s="35">
         <v>240302</v>
       </c>
       <c r="B337" s="3">
@@ -8296,8 +8296,8 @@
         <v>28.79</v>
       </c>
     </row>
-    <row r="338" spans="1:14" ht="19">
-      <c r="A338" s="41">
+    <row r="338" spans="1:14" ht="17.399999999999999">
+      <c r="A338" s="35">
         <v>240303</v>
       </c>
       <c r="B338" s="3">
@@ -8316,8 +8316,8 @@
         <v>28.39</v>
       </c>
     </row>
-    <row r="339" spans="1:14" ht="19">
-      <c r="A339" s="41">
+    <row r="339" spans="1:14" ht="17.399999999999999">
+      <c r="A339" s="35">
         <v>240304</v>
       </c>
       <c r="B339" s="3">
@@ -8336,8 +8336,8 @@
         <v>28.39</v>
       </c>
     </row>
-    <row r="340" spans="1:14" ht="19">
-      <c r="A340" s="41">
+    <row r="340" spans="1:14" ht="17.399999999999999">
+      <c r="A340" s="35">
         <v>240305</v>
       </c>
       <c r="B340" s="3">
@@ -8363,8 +8363,8 @@
       <c r="M340" s="1"/>
       <c r="N340" s="1"/>
     </row>
-    <row r="341" spans="1:14" ht="19">
-      <c r="A341" s="41">
+    <row r="341" spans="1:14" ht="17.399999999999999">
+      <c r="A341" s="35">
         <v>240306</v>
       </c>
       <c r="B341" s="3">
@@ -8390,8 +8390,8 @@
       <c r="M341" s="1"/>
       <c r="N341" s="1"/>
     </row>
-    <row r="342" spans="1:14" ht="19">
-      <c r="A342" s="41">
+    <row r="342" spans="1:14" ht="17.399999999999999">
+      <c r="A342" s="35">
         <v>240307</v>
       </c>
       <c r="B342" s="3">
@@ -8417,8 +8417,8 @@
       <c r="M342" s="1"/>
       <c r="N342" s="1"/>
     </row>
-    <row r="343" spans="1:14" ht="19">
-      <c r="A343" s="41">
+    <row r="343" spans="1:14" ht="17.399999999999999">
+      <c r="A343" s="35">
         <v>240308</v>
       </c>
       <c r="B343" s="3">
@@ -8444,8 +8444,8 @@
       <c r="M343" s="1"/>
       <c r="N343" s="1"/>
     </row>
-    <row r="344" spans="1:14" ht="19">
-      <c r="A344" s="41">
+    <row r="344" spans="1:14" ht="17.399999999999999">
+      <c r="A344" s="35">
         <v>240309</v>
       </c>
       <c r="B344" s="3">
@@ -8471,8 +8471,8 @@
       <c r="M344" s="1"/>
       <c r="N344" s="1"/>
     </row>
-    <row r="345" spans="1:14" ht="19">
-      <c r="A345" s="41">
+    <row r="345" spans="1:14" ht="17.399999999999999">
+      <c r="A345" s="35">
         <v>240310</v>
       </c>
       <c r="B345" s="3">
@@ -8498,8 +8498,8 @@
       <c r="M345" s="1"/>
       <c r="N345" s="1"/>
     </row>
-    <row r="346" spans="1:14" ht="19">
-      <c r="A346" s="41">
+    <row r="346" spans="1:14" ht="17.399999999999999">
+      <c r="A346" s="35">
         <v>240311</v>
       </c>
       <c r="B346" s="3">
@@ -8518,8 +8518,8 @@
         <v>28.39</v>
       </c>
     </row>
-    <row r="347" spans="1:14" ht="19">
-      <c r="A347" s="41">
+    <row r="347" spans="1:14" ht="17.399999999999999">
+      <c r="A347" s="35">
         <v>240312</v>
       </c>
       <c r="B347" s="3">
@@ -8538,8 +8538,8 @@
         <v>27.89</v>
       </c>
     </row>
-    <row r="348" spans="1:14" ht="19">
-      <c r="A348" s="41">
+    <row r="348" spans="1:14" ht="17.399999999999999">
+      <c r="A348" s="35">
         <v>240313</v>
       </c>
       <c r="B348" s="3">
@@ -8558,8 +8558,8 @@
         <v>27.89</v>
       </c>
     </row>
-    <row r="349" spans="1:14" ht="19">
-      <c r="A349" s="41">
+    <row r="349" spans="1:14" ht="17.399999999999999">
+      <c r="A349" s="35">
         <v>240314</v>
       </c>
       <c r="B349" s="3">
@@ -8578,8 +8578,8 @@
         <v>27.89</v>
       </c>
     </row>
-    <row r="350" spans="1:14" ht="19">
-      <c r="A350" s="41">
+    <row r="350" spans="1:14" ht="17.399999999999999">
+      <c r="A350" s="35">
         <v>240315</v>
       </c>
       <c r="B350" s="3">
@@ -8598,8 +8598,8 @@
         <v>27.89</v>
       </c>
     </row>
-    <row r="351" spans="1:14" ht="19">
-      <c r="A351" s="41">
+    <row r="351" spans="1:14" ht="17.399999999999999">
+      <c r="A351" s="35">
         <v>240316</v>
       </c>
       <c r="B351" s="3">
@@ -8618,8 +8618,8 @@
         <v>26.89</v>
       </c>
     </row>
-    <row r="352" spans="1:14" ht="19">
-      <c r="A352" s="41">
+    <row r="352" spans="1:14" ht="17.399999999999999">
+      <c r="A352" s="35">
         <v>240317</v>
       </c>
       <c r="B352" s="3">
@@ -8638,8 +8638,8 @@
         <v>26.89</v>
       </c>
     </row>
-    <row r="353" spans="1:6" ht="19">
-      <c r="A353" s="41">
+    <row r="353" spans="1:6" ht="17.399999999999999">
+      <c r="A353" s="35">
         <v>240318</v>
       </c>
       <c r="B353" s="3">
@@ -8658,8 +8658,8 @@
         <v>26.89</v>
       </c>
     </row>
-    <row r="354" spans="1:6" ht="19">
-      <c r="A354" s="41">
+    <row r="354" spans="1:6" ht="17.399999999999999">
+      <c r="A354" s="35">
         <v>240319</v>
       </c>
       <c r="B354" s="3">
@@ -8678,8 +8678,8 @@
         <v>26.89</v>
       </c>
     </row>
-    <row r="355" spans="1:6" ht="19">
-      <c r="A355" s="41">
+    <row r="355" spans="1:6" ht="17.399999999999999">
+      <c r="A355" s="35">
         <v>240320</v>
       </c>
       <c r="B355" s="3">
@@ -8698,8 +8698,8 @@
         <v>26.89</v>
       </c>
     </row>
-    <row r="356" spans="1:6" ht="19">
-      <c r="A356" s="41">
+    <row r="356" spans="1:6" ht="17.399999999999999">
+      <c r="A356" s="35">
         <v>240321</v>
       </c>
       <c r="B356" s="3">
@@ -8718,8 +8718,8 @@
         <v>26.89</v>
       </c>
     </row>
-    <row r="357" spans="1:6" ht="19">
-      <c r="A357" s="41">
+    <row r="357" spans="1:6" ht="17.399999999999999">
+      <c r="A357" s="35">
         <v>240322</v>
       </c>
       <c r="B357" s="3">
@@ -8738,8 +8738,8 @@
         <v>26.89</v>
       </c>
     </row>
-    <row r="358" spans="1:6" ht="19">
-      <c r="A358" s="41">
+    <row r="358" spans="1:6" ht="17.399999999999999">
+      <c r="A358" s="35">
         <v>240323</v>
       </c>
       <c r="B358" s="3">
@@ -8758,8 +8758,8 @@
         <v>26.89</v>
       </c>
     </row>
-    <row r="359" spans="1:6" ht="19">
-      <c r="A359" s="41">
+    <row r="359" spans="1:6" ht="17.399999999999999">
+      <c r="A359" s="35">
         <v>240324</v>
       </c>
       <c r="B359" s="3">
@@ -8778,8 +8778,8 @@
         <v>26.89</v>
       </c>
     </row>
-    <row r="360" spans="1:6" ht="19">
-      <c r="A360" s="41">
+    <row r="360" spans="1:6" ht="17.399999999999999">
+      <c r="A360" s="35">
         <v>240325</v>
       </c>
       <c r="B360" s="3">
@@ -8798,8 +8798,8 @@
         <v>26.89</v>
       </c>
     </row>
-    <row r="361" spans="1:6" ht="19">
-      <c r="A361" s="41">
+    <row r="361" spans="1:6" ht="17.399999999999999">
+      <c r="A361" s="35">
         <v>240326</v>
       </c>
       <c r="B361" s="3">
@@ -8818,8 +8818,8 @@
         <v>26.89</v>
       </c>
     </row>
-    <row r="362" spans="1:6" ht="19">
-      <c r="A362" s="41">
+    <row r="362" spans="1:6" ht="17.399999999999999">
+      <c r="A362" s="35">
         <v>240327</v>
       </c>
       <c r="B362" s="3">
@@ -8838,8 +8838,8 @@
         <v>26.89</v>
       </c>
     </row>
-    <row r="363" spans="1:6" ht="19">
-      <c r="A363" s="41">
+    <row r="363" spans="1:6" ht="17.399999999999999">
+      <c r="A363" s="35">
         <v>240328</v>
       </c>
       <c r="B363" s="3">
@@ -8858,8 +8858,8 @@
         <v>26.89</v>
       </c>
     </row>
-    <row r="364" spans="1:6" ht="19">
-      <c r="A364" s="41">
+    <row r="364" spans="1:6" ht="17.399999999999999">
+      <c r="A364" s="35">
         <v>240329</v>
       </c>
       <c r="B364" s="3">
@@ -8878,8 +8878,8 @@
         <v>26.89</v>
       </c>
     </row>
-    <row r="365" spans="1:6" ht="19">
-      <c r="A365" s="41">
+    <row r="365" spans="1:6" ht="17.399999999999999">
+      <c r="A365" s="35">
         <v>240330</v>
       </c>
       <c r="B365" s="3">
@@ -8898,8 +8898,8 @@
         <v>26.89</v>
       </c>
     </row>
-    <row r="366" spans="1:6" ht="20" thickBot="1">
-      <c r="A366" s="42">
+    <row r="366" spans="1:6" ht="18" thickBot="1">
+      <c r="A366" s="36">
         <v>240331</v>
       </c>
       <c r="B366" s="7">
